--- a/Version 3/3.Personaldaten/HUSST_Versorgungsdaten_3_x.Dt-with-formula.xlsx
+++ b/Version 3/3.Personaldaten/HUSST_Versorgungsdaten_3_x.Dt-with-formula.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HN\dev\git\HUSST\Version 3\3.Personaldaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADB18CB-386F-40D1-B87E-F5BF966829E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F029AE-B610-4870-A2A4-1CDA31D55C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUSST_Versorgungsdaten_3_x.Dt" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
+    <sheet name="assignSchematalist" sheetId="2" r:id="rId2"/>
+    <sheet name="PerRename" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HUSST_Versorgungsdaten_3_x.Dt!$A$1:$F$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HUSST_Versorgungsdaten_3_x.Dt!$A$1:$F$182</definedName>
     <definedName name="assignedSchema">HUSST_Versorgungsdaten_3_x.Dt!$F$1</definedName>
+    <definedName name="DatentypenCsv">HUSST_Versorgungsdaten_3_x.Dt!$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="232">
   <si>
     <t>Xsd-Schema</t>
   </si>
@@ -620,13 +622,157 @@
   </si>
   <si>
     <t>unbenutzt</t>
+  </si>
+  <si>
+    <t>Einsatzarten_Type</t>
+  </si>
+  <si>
+    <t>GeraetEinsatztypen_Type</t>
+  </si>
+  <si>
+    <t>Geraet_Type</t>
+  </si>
+  <si>
+    <t>IdentobjektTypen_Type</t>
+  </si>
+  <si>
+    <t>Identobjekte_Type</t>
+  </si>
+  <si>
+    <t>PersonalIdentobjekte_Type</t>
+  </si>
+  <si>
+    <t>Personal_Type</t>
+  </si>
+  <si>
+    <t>Personaleinsatz_Type</t>
+  </si>
+  <si>
+    <t>Standort_Type</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>HUSST_Personaldaten.xsd</t>
+  </si>
+  <si>
+    <t>* Hinweis: die Liste A:B muss alphabetisch sortiert sein!</t>
+  </si>
+  <si>
+    <t>Datentyp_V2</t>
+  </si>
+  <si>
+    <t>Datentyp_Migration_V3</t>
+  </si>
+  <si>
+    <t>Migrationsrumpf</t>
+  </si>
+  <si>
+    <t>DefEinsatzart_Type</t>
+  </si>
+  <si>
+    <t>DefIdentobjekttyp_Type</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Personalrolle
+Rolle, die eine Person an einem Vertriebsgerät einnehmen kann.
+Eine Rolle fasst die Berechtigung für verschiedene Funktionen zusammen.
+Die konkrete Ausgestaltung der Rolle ist mit dieser Definition nicht beschrieben. 
+Sie kann z.B. in der Vertriebsgerätesoftware definiert sein.</t>
+  </si>
+  <si>
+    <t>PersonalEinsatzart_Type</t>
+  </si>
+  <si>
+    <t>Vertriebsgerät</t>
+  </si>
+  <si>
+    <t>DefGeraeteeinsatztyp_Type</t>
+  </si>
+  <si>
+    <t>Einsatzzweck eines Vertriebsgerätes
+Der Geraeteeinsatztyp kann zum Beispiel zu einer Differenzierung der Datenversorgung verwendet werden.
+Beispiel:
+Unterschiedliche Verkaufssortimente für Bordrechner im Fahrzeugeinsatz oder im Vorverkauf.</t>
+  </si>
+  <si>
+    <t>Hinweise</t>
+  </si>
+  <si>
+    <t>Frage: Ist das Kunst, oder kann das weg?</t>
+  </si>
+  <si>
+    <t>Geräte(einsatz)typ- und Rollenzuordnung zu Personal
+Zuordnung einer oder mehrere Einsatzarten (Rollen) zu einer Person
+aufgeschlüsselt zu Gerätetyp und Geräteeinsatztyp.</t>
+  </si>
+  <si>
+    <t>primekey</t>
+  </si>
+  <si>
+    <t>ID_Einsatzart</t>
+  </si>
+  <si>
+    <t>ID_Geraet</t>
+  </si>
+  <si>
+    <t>ID_Geraeteeinsatztyp</t>
+  </si>
+  <si>
+    <t>Geraetetypen_Type</t>
+  </si>
+  <si>
+    <t>ID_Identobjekttyp</t>
+  </si>
+  <si>
+    <t>ID_Personaleinsatz</t>
+  </si>
+  <si>
+    <t>ID_PersonalIdentobjekt</t>
+  </si>
+  <si>
+    <t>ID_Standort</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>SchemaNeu</t>
+  </si>
+  <si>
+    <t>Technisch</t>
+  </si>
+  <si>
+    <t>Intermodal</t>
+  </si>
+  <si>
+    <t>"$X";"$L";"$T";"$SN"</t>
+  </si>
+  <si>
+    <t>Fragen: 
+1. Ist das Kunst, oder kann das weg?
+2. Sollen wir nicht besser Gerätetyp und Geräteeinsatztyp
+ optional machen?</t>
+  </si>
+  <si>
+    <t>xit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,14 +907,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +1088,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1109,9 +1255,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1157,7 +1311,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1183,6 +1337,81 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1544,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,10 +1786,11 @@
     <col min="3" max="3" width="55.140625" customWidth="1"/>
     <col min="4" max="4" width="18" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1577,54 +1807,74 @@
         <f>"		&lt;type&gt;&lt;name&gt;$N&lt;/name&gt;&lt;schemalist&gt;$L&lt;/schemalist&gt;&lt;/type&gt;"</f>
         <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;$N&lt;/name&gt;&lt;schemalist&gt;$L&lt;/schemalist&gt;&lt;/type&gt;</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(ISNA(LOOKUP(C2,Tabelle1!A:A)),"",LOOKUP(C2,Tabelle1!A:A))</f>
-        <v>Char</v>
+        <f>IF(ISNA(LOOKUP(C2,assignSchematalist!A:A)),"",LOOKUP(C2,assignSchematalist!A:A))</f>
+        <v>DauerMinuten</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(D2=C2,LOOKUP(C2,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D2=C2,LOOKUP(C2,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F2" t="str">
         <f>IF(E2="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C2),"$L",E2))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DauerMinuten&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A2),"$L",$B2),"$T",$C2),"$SN",$G2)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DauerMinuten";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(ISNA(LOOKUP(C3,Tabelle1!A:A)),"",LOOKUP(C3,Tabelle1!A:A))</f>
-        <v>Char</v>
+        <f>IF(ISNA(LOOKUP(C3,assignSchematalist!A:A)),"",LOOKUP(C3,assignSchematalist!A:A))</f>
+        <v>DauerMinuten</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(D3=C3,LOOKUP(C3,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D3=C3,LOOKUP(C3,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F3" t="str">
         <f>IF(E3="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C3),"$L",E3))</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A3),"$L",$B3),"$T",$C3),"$SN",$G3)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DefBundesland_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1632,22 +1882,29 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(ISNA(LOOKUP(C4,Tabelle1!A:A)),"",LOOKUP(C4,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C4,assignSchematalist!A:A)),"",LOOKUP(C4,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(D4=C4,LOOKUP(C4,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D4=C4,LOOKUP(C4,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F4" t="str">
         <f>IF(E4="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C4),"$L",E4))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DauerMinuten&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A4),"$L",$B4),"$T",$C4),"$SN",$G4)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DefWaehrung_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1655,22 +1912,29 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(ISNA(LOOKUP(C5,Tabelle1!A:A)),"",LOOKUP(C5,Tabelle1!A:A))</f>
-        <v>UhrzeitMinuten</v>
+        <f>IF(ISNA(LOOKUP(C5,assignSchematalist!A:A)),"",LOOKUP(C5,assignSchematalist!A:A))</f>
+        <v>DynAttributDef_Type</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(D5=C5,LOOKUP(C5,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D5=C5,LOOKUP(C5,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Basis</v>
       </c>
       <c r="F5" t="str">
         <f>IF(E5="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C5),"$L",E5))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;UhrzeitMinuten&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DynAttributDef_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A5),"$L",$B5),"$T",$C5),"$SN",$G5)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DynAttributDef_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -1678,19 +1942,23 @@
         <v>12</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(ISNA(LOOKUP(C6,Tabelle1!A:A)),"",LOOKUP(C6,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C6,assignSchematalist!A:A)),"",LOOKUP(C6,assignSchematalist!A:A))</f>
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF(D6=C6,LOOKUP(C6,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D6=C6,LOOKUP(C6,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F6" t="str">
         <f>IF(E6="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C6),"$L",E6))</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A6),"$L",$B6),"$T",$C6),"$SN",$G6)</f>
+        <v>"unbenutzt";"";"Betriebszeit_Type";""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1698,22 +1966,29 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(ISNA(LOOKUP(C7,Tabelle1!A:A)),"",LOOKUP(C7,Tabelle1!A:A))</f>
-        <v>INT1</v>
+        <f>IF(ISNA(LOOKUP(C7,assignSchematalist!A:A)),"",LOOKUP(C7,assignSchematalist!A:A))</f>
+        <v>DynAttributDef_Type</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(D7=C7,LOOKUP(C7,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D7=C7,LOOKUP(C7,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F7" t="str">
         <f>IF(E7="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C7),"$L",E7))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;INT1&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A7),"$L",$B7),"$T",$C7),"$SN",$G7)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DynAttributTyp_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1721,22 +1996,29 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(ISNA(LOOKUP(C8,Tabelle1!A:A)),"",LOOKUP(C8,Tabelle1!A:A))</f>
-        <v>INT2</v>
+        <f>IF(ISNA(LOOKUP(C8,assignSchematalist!A:A)),"",LOOKUP(C8,assignSchematalist!A:A))</f>
+        <v>DynAttributWert_Type</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(D8=C8,LOOKUP(C8,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D8=C8,LOOKUP(C8,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Basis</v>
       </c>
       <c r="F8" t="str">
         <f>IF(E8="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C8),"$L",E8))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;INT2&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DynAttributWert_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A8),"$L",$B8),"$T",$C8),"$SN",$G8)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DynAttributWert_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -1744,88 +2026,113 @@
         <v>15</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(ISNA(LOOKUP(C9,Tabelle1!A:A)),"",LOOKUP(C9,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C9,assignSchematalist!A:A)),"",LOOKUP(C9,assignSchematalist!A:A))</f>
         <v>INT2</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(D9=C9,LOOKUP(C9,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D9=C9,LOOKUP(C9,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F9" t="str">
         <f>IF(E9="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C9),"$L",E9))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A9),"$L",$B9),"$T",$C9),"$SN",$G9)</f>
+        <v>"unbenutzt";"";"INT3";""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(ISNA(LOOKUP(C10,Tabelle1!A:A)),"",LOOKUP(C10,Tabelle1!A:A))</f>
-        <v>INT2</v>
+        <f>IF(ISNA(LOOKUP(C10,assignSchematalist!A:A)),"",LOOKUP(C10,assignSchematalist!A:A))</f>
+        <v>DynAttributWert_Type</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(D10=C10,LOOKUP(C10,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D10=C10,LOOKUP(C10,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F10" t="str">
         <f>IF(E10="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C10),"$L",E10))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A10),"$L",$B10),"$T",$C10),"$SN",$G10)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Feiertage_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(ISNA(LOOKUP(C11,Tabelle1!A:A)),"",LOOKUP(C11,Tabelle1!A:A))</f>
-        <v>INT8</v>
+        <f>IF(ISNA(LOOKUP(C11,assignSchematalist!A:A)),"",LOOKUP(C11,assignSchematalist!A:A))</f>
+        <v>FLOAT1</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(D11=C11,LOOKUP(C11,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D11=C11,LOOKUP(C11,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F11" t="str">
         <f>IF(E11="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C11),"$L",E11))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;INT8&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A11),"$L",$B11),"$T",$C11),"$SN",$G11)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"ID_Waehrung_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(ISNA(LOOKUP(C12,Tabelle1!A:A)),"",LOOKUP(C12,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C12,assignSchematalist!A:A)),"",LOOKUP(C12,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(D12=C12,LOOKUP(C12,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D12=C12,LOOKUP(C12,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F12" t="str">
         <f>IF(E12="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C12),"$L",E12))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;FLOAT1&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A12),"$L",$B12),"$T",$C12),"$SN",$G12)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"ID_WaehrungHUSST_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1833,22 +2140,29 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(ISNA(LOOKUP(C13,Tabelle1!A:A)),"",LOOKUP(C13,Tabelle1!A:A))</f>
-        <v>KoordWgs84_Type</v>
+        <f>IF(ISNA(LOOKUP(C13,assignSchematalist!A:A)),"",LOOKUP(C13,assignSchematalist!A:A))</f>
+        <v>Kalender_Type</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(D13=C13,LOOKUP(C13,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D13=C13,LOOKUP(C13,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Basis</v>
       </c>
       <c r="F13" t="str">
         <f>IF(E13="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C13),"$L",E13))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;KoordWgs84_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Kalender_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A13),"$L",$B13),"$T",$C13),"$SN",$G13)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Kalender_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1856,68 +2170,89 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(ISNA(LOOKUP(C14,Tabelle1!A:A)),"",LOOKUP(C14,Tabelle1!A:A))</f>
-        <v>Char</v>
+        <f>IF(ISNA(LOOKUP(C14,assignSchematalist!A:A)),"",LOOKUP(C14,assignSchematalist!A:A))</f>
+        <v>KoordWgs84_Type</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(D14=C14,LOOKUP(C14,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D14=C14,LOOKUP(C14,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Basis</v>
       </c>
       <c r="F14" t="str">
         <f>IF(E14="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C14),"$L",E14))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Char&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;KoordWgs84_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A14),"$L",$B14),"$T",$C14),"$SN",$G14)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"KoordWgs84_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(ISNA(LOOKUP(C15,Tabelle1!A:A)),"",LOOKUP(C15,Tabelle1!A:A))</f>
-        <v>Sprachtexte_Type</v>
+        <f>IF(ISNA(LOOKUP(C15,assignSchematalist!A:A)),"",LOOKUP(C15,assignSchematalist!A:A))</f>
+        <v>Tagesarten_Type</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(D15=C15,LOOKUP(C15,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D15=C15,LOOKUP(C15,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F15" t="str">
         <f>IF(E15="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C15),"$L",E15))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Tagesarten_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A15),"$L",$B15),"$T",$C15),"$SN",$G15)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Tagesarten_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(ISNA(LOOKUP(C16,Tabelle1!A:A)),"",LOOKUP(C16,Tabelle1!A:A))</f>
-        <v/>
+        <f>IF(ISNA(LOOKUP(C16,assignSchematalist!A:A)),"",LOOKUP(C16,assignSchematalist!A:A))</f>
+        <v>TagesartMerkmalElemente_Type</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(D16=C16,LOOKUP(C16,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D16=C16,LOOKUP(C16,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F16" t="str">
         <f>IF(E16="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C16),"$L",E16))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;TagesartMerkmalElemente_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A16),"$L",$B16),"$T",$C16),"$SN",$G16)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"TagesartMerkmalElemente_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1928,19 +2263,23 @@
         <v>24</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(ISNA(LOOKUP(C17,Tabelle1!A:A)),"",LOOKUP(C17,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C17,assignSchematalist!A:A)),"",LOOKUP(C17,assignSchematalist!A:A))</f>
         <v>Vorverkauf_Type</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(D17=C17,LOOKUP(C17,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D17=C17,LOOKUP(C17,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F17" t="str">
         <f>IF(E17="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C17),"$L",E17))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A17),"$L",$B17),"$T",$C17),"$SN",$G17)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ZuordnungRelCodeGrp_Type";""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1951,19 +2290,23 @@
         <v>25</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(ISNA(LOOKUP(C18,Tabelle1!A:A)),"",LOOKUP(C18,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C18,assignSchematalist!A:A)),"",LOOKUP(C18,assignSchematalist!A:A))</f>
         <v>Vorverkauf_Type</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(D18=C18,LOOKUP(C18,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D18=C18,LOOKUP(C18,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F18" t="str">
         <f>IF(E18="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C18),"$L",E18))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A18),"$L",$B18),"$T",$C18),"$SN",$G18)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ZusSorteAnbindung_Type";""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1971,22 +2314,29 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(ISNA(LOOKUP(C19,Tabelle1!A:A)),"",LOOKUP(C19,Tabelle1!A:A))</f>
-        <v>Umschalttag_Type</v>
+        <f>IF(ISNA(LOOKUP(C19,assignSchematalist!A:A)),"",LOOKUP(C19,assignSchematalist!A:A))</f>
+        <v>Tagesmerkmale_Type</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(D19=C19,LOOKUP(C19,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D19=C19,LOOKUP(C19,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F19" t="str">
         <f>IF(E19="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C19),"$L",E19))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Tagesmerkmale_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A19),"$L",$B19),"$T",$C19),"$SN",$G19)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Tagesmerkmale_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1997,19 +2347,23 @@
         <v>28</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(ISNA(LOOKUP(C20,Tabelle1!A:A)),"",LOOKUP(C20,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C20,assignSchematalist!A:A)),"",LOOKUP(C20,assignSchematalist!A:A))</f>
         <v>Sammelbeleg_Type</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(D20=C20,LOOKUP(C20,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D20=C20,LOOKUP(C20,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Tarif</v>
       </c>
       <c r="F20" t="str">
         <f>IF(E20="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C20),"$L",E20))</f>
         <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Sammelbeleg_Type&lt;/name&gt;&lt;schemalist&gt;Tarif&lt;/schemalist&gt;&lt;/type&gt;</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A20),"$L",$B20),"$T",$C20),"$SN",$G20)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Sammelbeleg_Type";""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2017,22 +2371,29 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(ISNA(LOOKUP(C21,Tabelle1!A:A)),"",LOOKUP(C21,Tabelle1!A:A))</f>
-        <v>KoordWgs84_Type</v>
+        <f>IF(ISNA(LOOKUP(C21,assignSchematalist!A:A)),"",LOOKUP(C21,assignSchematalist!A:A))</f>
+        <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(D21=C21,LOOKUP(C21,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D21=C21,LOOKUP(C21,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F21" t="str">
         <f>IF(E21="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C21),"$L",E21))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;TagesmerkmalElemente_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A21),"$L",$B21),"$T",$C21),"$SN",$G21)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"TagesmerkmalElemente_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2043,19 +2404,23 @@
         <v>30</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(ISNA(LOOKUP(C22,Tabelle1!A:A)),"",LOOKUP(C22,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C22,assignSchematalist!A:A)),"",LOOKUP(C22,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(D22=C22,LOOKUP(C22,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D22=C22,LOOKUP(C22,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F22" t="str">
         <f>IF(E22="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C22),"$L",E22))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A22),"$L",$B22),"$T",$C22),"$SN",$G22)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_RelationenberechnungsregelungHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2066,19 +2431,23 @@
         <v>31</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(ISNA(LOOKUP(C23,Tabelle1!A:A)),"",LOOKUP(C23,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C23,assignSchematalist!A:A)),"",LOOKUP(C23,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(D23=C23,LOOKUP(C23,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D23=C23,LOOKUP(C23,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F23" t="str">
         <f>IF(E23="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C23),"$L",E23))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A23),"$L",$B23),"$T",$C23),"$SN",$G23)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_Relationenberechnungsregelung_Type";""</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2089,19 +2458,23 @@
         <v>32</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(ISNA(LOOKUP(C24,Tabelle1!A:A)),"",LOOKUP(C24,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C24,assignSchematalist!A:A)),"",LOOKUP(C24,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(D24=C24,LOOKUP(C24,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D24=C24,LOOKUP(C24,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F24" t="str">
         <f>IF(E24="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C24),"$L",E24))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A24),"$L",$B24),"$T",$C24),"$SN",$G24)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_RelationendruckregelungHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2112,19 +2485,23 @@
         <v>33</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(ISNA(LOOKUP(C25,Tabelle1!A:A)),"",LOOKUP(C25,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C25,assignSchematalist!A:A)),"",LOOKUP(C25,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(D25=C25,LOOKUP(C25,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D25=C25,LOOKUP(C25,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F25" t="str">
         <f>IF(E25="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C25),"$L",E25))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A25),"$L",$B25),"$T",$C25),"$SN",$G25)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_Relationendruckregelung_Type";""</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2135,19 +2512,23 @@
         <v>34</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(ISNA(LOOKUP(C26,Tabelle1!A:A)),"",LOOKUP(C26,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C26,assignSchematalist!A:A)),"",LOOKUP(C26,assignSchematalist!A:A))</f>
         <v>INT8</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(D26=C26,LOOKUP(C26,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D26=C26,LOOKUP(C26,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F26" t="str">
         <f>IF(E26="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C26),"$L",E26))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A26),"$L",$B26),"$T",$C26),"$SN",$G26)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"KA_Kundentyp_CODE_Type";""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2158,19 +2539,23 @@
         <v>35</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(ISNA(LOOKUP(C27,Tabelle1!A:A)),"",LOOKUP(C27,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C27,assignSchematalist!A:A)),"",LOOKUP(C27,assignSchematalist!A:A))</f>
         <v>INT8</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(D27=C27,LOOKUP(C27,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D27=C27,LOOKUP(C27,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F27" t="str">
         <f>IF(E27="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C27),"$L",E27))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A27),"$L",$B27),"$T",$C27),"$SN",$G27)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"KA_Profil_CODE_Type";""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2181,19 +2566,23 @@
         <v>36</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(ISNA(LOOKUP(C28,Tabelle1!A:A)),"",LOOKUP(C28,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C28,assignSchematalist!A:A)),"",LOOKUP(C28,assignSchematalist!A:A))</f>
         <v>INT8</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(D28=C28,LOOKUP(C28,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D28=C28,LOOKUP(C28,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F28" t="str">
         <f>IF(E28="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C28),"$L",E28))</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A28),"$L",$B28),"$T",$C28),"$SN",$G28)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"KA_ServiceKlasse_CODE_Type";""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2204,19 +2593,23 @@
         <v>37</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(ISNA(LOOKUP(C29,Tabelle1!A:A)),"",LOOKUP(C29,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C29,assignSchematalist!A:A)),"",LOOKUP(C29,assignSchematalist!A:A))</f>
         <v>INT8</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(D29=C29,LOOKUP(C29,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D29=C29,LOOKUP(C29,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F29" t="str">
         <f>IF(E29="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C29),"$L",E29))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A29),"$L",$B29),"$T",$C29),"$SN",$G29)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"KA_TransportmittelKategorie_CODE_Type";""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2227,19 +2620,23 @@
         <v>38</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(ISNA(LOOKUP(C30,Tabelle1!A:A)),"",LOOKUP(C30,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C30,assignSchematalist!A:A)),"",LOOKUP(C30,assignSchematalist!A:A))</f>
         <v>INT8</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(D30=C30,LOOKUP(C30,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D30=C30,LOOKUP(C30,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F30" t="str">
         <f>IF(E30="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C30),"$L",E30))</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A30),"$L",$B30),"$T",$C30),"$SN",$G30)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"KA_RabattParameter_CODE_Type";""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2250,19 +2647,23 @@
         <v>39</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(ISNA(LOOKUP(C31,Tabelle1!A:A)),"",LOOKUP(C31,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C31,assignSchematalist!A:A)),"",LOOKUP(C31,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(D31=C31,LOOKUP(C31,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D31=C31,LOOKUP(C31,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F31" t="str">
         <f>IF(E31="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C31),"$L",E31))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A31),"$L",$B31),"$T",$C31),"$SN",$G31)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Tarifgebiete_Type";""</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2273,19 +2674,23 @@
         <v>40</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(ISNA(LOOKUP(C32,Tabelle1!A:A)),"",LOOKUP(C32,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C32,assignSchematalist!A:A)),"",LOOKUP(C32,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(D32=C32,LOOKUP(C32,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D32=C32,LOOKUP(C32,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F32" t="str">
         <f>IF(E32="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C32),"$L",E32))</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A32),"$L",$B32),"$T",$C32),"$SN",$G32)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Tarifpunkte_Type";""</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2296,19 +2701,23 @@
         <v>41</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(ISNA(LOOKUP(C33,Tabelle1!A:A)),"",LOOKUP(C33,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C33,assignSchematalist!A:A)),"",LOOKUP(C33,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(D33=C33,LOOKUP(C33,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D33=C33,LOOKUP(C33,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F33" t="str">
         <f>IF(E33="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C33),"$L",E33))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A33),"$L",$B33),"$T",$C33),"$SN",$G33)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Tarifpunktmengen_Type";""</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2319,19 +2728,23 @@
         <v>42</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(ISNA(LOOKUP(C34,Tabelle1!A:A)),"",LOOKUP(C34,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C34,assignSchematalist!A:A)),"",LOOKUP(C34,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(D34=C34,LOOKUP(C34,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D34=C34,LOOKUP(C34,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F34" t="str">
         <f>IF(E34="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C34),"$L",E34))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A34),"$L",$B34),"$T",$C34),"$SN",$G34)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"TarifpunktmengeElemente_Type";""</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2339,22 +2752,29 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(ISNA(LOOKUP(C35,Tabelle1!A:A)),"",LOOKUP(C35,Tabelle1!A:A))</f>
-        <v>Vorverkauf_Type</v>
+        <f>IF(ISNA(LOOKUP(C35,assignSchematalist!A:A)),"",LOOKUP(C35,assignSchematalist!A:A))</f>
+        <v>UhrzeitMinuten</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(D35=C35,LOOKUP(C35,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D35=C35,LOOKUP(C35,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F35" t="str">
         <f>IF(E35="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C35),"$L",E35))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;UhrzeitMinuten&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G35" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A35),"$L",$B35),"$T",$C35),"$SN",$G35)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"UhrzeitMinuten";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2362,22 +2782,29 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(ISNA(LOOKUP(C36,Tabelle1!A:A)),"",LOOKUP(C36,Tabelle1!A:A))</f>
-        <v>Vorverkauf_Type</v>
+        <f>IF(ISNA(LOOKUP(C36,assignSchematalist!A:A)),"",LOOKUP(C36,assignSchematalist!A:A))</f>
+        <v>Umschalttag_Type</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(D36=C36,LOOKUP(C36,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D36=C36,LOOKUP(C36,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F36" t="str">
         <f>IF(E36="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C36),"$L",E36))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A36),"$L",$B36),"$T",$C36),"$SN",$G36)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Unternehmen_Type";"Intermodal"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2385,45 +2812,59 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(ISNA(LOOKUP(C37,Tabelle1!A:A)),"",LOOKUP(C37,Tabelle1!A:A))</f>
-        <v>Kalender_Type</v>
+        <f>IF(ISNA(LOOKUP(C37,assignSchematalist!A:A)),"",LOOKUP(C37,assignSchematalist!A:A))</f>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <f>IF(D37=C37,LOOKUP(C37,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D37=C37,LOOKUP(C37,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F37" t="str">
         <f>IF(E37="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C37),"$L",E37))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Kalender_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A37),"$L",$B37),"$T",$C37),"$SN",$G37)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Bearbeitung_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(ISNA(LOOKUP(C38,Tabelle1!A:A)),"",LOOKUP(C38,Tabelle1!A:A))</f>
-        <v>Tagesarten_Type</v>
+        <f>IF(ISNA(LOOKUP(C38,assignSchematalist!A:A)),"",LOOKUP(C38,assignSchematalist!A:A))</f>
+        <v/>
       </c>
       <c r="E38" t="str">
-        <f>IF(D38=C38,LOOKUP(C38,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D38=C38,LOOKUP(C38,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F38" t="str">
         <f>IF(E38="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C38),"$L",E38))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Tagesarten_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H38" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A38),"$L",$B38),"$T",$C38),"$SN",$G38)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"blobString";"Technisch"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2431,91 +2872,119 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(ISNA(LOOKUP(C39,Tabelle1!A:A)),"",LOOKUP(C39,Tabelle1!A:A))</f>
-        <v>Tagesmerkmale_Type</v>
+        <f>IF(ISNA(LOOKUP(C39,assignSchematalist!A:A)),"",LOOKUP(C39,assignSchematalist!A:A))</f>
+        <v>Char</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(D39=C39,LOOKUP(C39,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D39=C39,LOOKUP(C39,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Basis</v>
       </c>
       <c r="F39" t="str">
         <f>IF(E39="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C39),"$L",E39))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Tagesmerkmale_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Char&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G39" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A39),"$L",$B39),"$T",$C39),"$SN",$G39)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Char";"Technisch"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(ISNA(LOOKUP(C40,Tabelle1!A:A)),"",LOOKUP(C40,Tabelle1!A:A))</f>
-        <v>TagesmerkmalElemente_Type</v>
+        <f>IF(ISNA(LOOKUP(C40,assignSchematalist!A:A)),"",LOOKUP(C40,assignSchematalist!A:A))</f>
+        <v>Char</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(D40=C40,LOOKUP(C40,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D40=C40,LOOKUP(C40,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F40" t="str">
         <f>IF(E40="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C40),"$L",E40))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;TagesmerkmalElemente_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A40),"$L",$B40),"$T",$C40),"$SN",$G40)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Angebot,Basis";"DateCompact";"Technisch"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(ISNA(LOOKUP(C41,Tabelle1!A:A)),"",LOOKUP(C41,Tabelle1!A:A))</f>
-        <v>TagesartMerkmalElemente_Type</v>
+        <f>IF(ISNA(LOOKUP(C41,assignSchematalist!A:A)),"",LOOKUP(C41,assignSchematalist!A:A))</f>
+        <v>Char</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(D41=C41,LOOKUP(C41,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D41=C41,LOOKUP(C41,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F41" t="str">
         <f>IF(E41="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C41),"$L",E41))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;TagesartMerkmalElemente_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A41),"$L",$B41),"$T",$C41),"$SN",$G41)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"DateTimeCompact";"Technisch"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(ISNA(LOOKUP(C42,Tabelle1!A:A)),"",LOOKUP(C42,Tabelle1!A:A))</f>
-        <v>INT8</v>
+        <f>IF(ISNA(LOOKUP(C42,assignSchematalist!A:A)),"",LOOKUP(C42,assignSchematalist!A:A))</f>
+        <v>DauerMinuten</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(D42=C42,LOOKUP(C42,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D42=C42,LOOKUP(C42,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F42" t="str">
         <f>IF(E42="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C42),"$L",E42))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A42),"$L",$B42),"$T",$C42),"$SN",$G42)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Angebot,Basis,Tarif,Tarifstrecken";"DynAttribut_Subtype";"Technisch"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2526,19 +2995,23 @@
         <v>51</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(ISNA(LOOKUP(C43,Tabelle1!A:A)),"",LOOKUP(C43,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C43,assignSchematalist!A:A)),"",LOOKUP(C43,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(D43=C43,LOOKUP(C43,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D43=C43,LOOKUP(C43,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F43" t="str">
         <f>IF(E43="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C43),"$L",E43))</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A43),"$L",$B43),"$T",$C43),"$SN",$G43)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Relationscodes_Type";""</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2549,19 +3022,23 @@
         <v>52</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(ISNA(LOOKUP(C44,Tabelle1!A:A)),"",LOOKUP(C44,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C44,assignSchematalist!A:A)),"",LOOKUP(C44,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(D44=C44,LOOKUP(C44,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D44=C44,LOOKUP(C44,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F44" t="str">
         <f>IF(E44="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C44),"$L",E44))</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A44),"$L",$B44),"$T",$C44),"$SN",$G44)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Relationscodegruppen_Type";""</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2572,19 +3049,23 @@
         <v>53</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(ISNA(LOOKUP(C45,Tabelle1!A:A)),"",LOOKUP(C45,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C45,assignSchematalist!A:A)),"",LOOKUP(C45,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(D45=C45,LOOKUP(C45,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D45=C45,LOOKUP(C45,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F45" t="str">
         <f>IF(E45="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C45),"$L",E45))</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A45),"$L",$B45),"$T",$C45),"$SN",$G45)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"RaeumlicheGueltigkeit_Type";""</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2595,19 +3076,23 @@
         <v>54</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(ISNA(LOOKUP(C46,Tabelle1!A:A)),"",LOOKUP(C46,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C46,assignSchematalist!A:A)),"",LOOKUP(C46,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(D46=C46,LOOKUP(C46,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D46=C46,LOOKUP(C46,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F46" t="str">
         <f>IF(E46="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C46),"$L",E46))</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A46),"$L",$B46),"$T",$C46),"$SN",$G46)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Relationen_Type";""</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2618,19 +3103,23 @@
         <v>55</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(ISNA(LOOKUP(C47,Tabelle1!A:A)),"",LOOKUP(C47,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C47,assignSchematalist!A:A)),"",LOOKUP(C47,assignSchematalist!A:A))</f>
         <v>Umschalttag_Type</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(D47=C47,LOOKUP(C47,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D47=C47,LOOKUP(C47,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F47" t="str">
         <f>IF(E47="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C47),"$L",E47))</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A47),"$L",$B47),"$T",$C47),"$SN",$G47)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Vias_Type";""</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2641,19 +3130,23 @@
         <v>56</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(ISNA(LOOKUP(C48,Tabelle1!A:A)),"",LOOKUP(C48,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C48,assignSchematalist!A:A)),"",LOOKUP(C48,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(D48=C48,LOOKUP(C48,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D48=C48,LOOKUP(C48,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F48" t="str">
         <f>IF(E48="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C48),"$L",E48))</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A48),"$L",$B48),"$T",$C48),"$SN",$G48)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Relationszuordnungen_Type";""</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2664,19 +3157,23 @@
         <v>57</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(ISNA(LOOKUP(C49,Tabelle1!A:A)),"",LOOKUP(C49,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C49,assignSchematalist!A:A)),"",LOOKUP(C49,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(D49=C49,LOOKUP(C49,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D49=C49,LOOKUP(C49,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F49" t="str">
         <f>IF(E49="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C49),"$L",E49))</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A49),"$L",$B49),"$T",$C49),"$SN",$G49)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Teilrelationen_Type";""</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2687,19 +3184,23 @@
         <v>58</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(ISNA(LOOKUP(C50,Tabelle1!A:A)),"",LOOKUP(C50,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C50,assignSchematalist!A:A)),"",LOOKUP(C50,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(D50=C50,LOOKUP(C50,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D50=C50,LOOKUP(C50,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F50" t="str">
         <f>IF(E50="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C50),"$L",E50))</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A50),"$L",$B50),"$T",$C50),"$SN",$G50)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Nachbarhaltestellen_Type";""</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2710,19 +3211,23 @@
         <v>59</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(ISNA(LOOKUP(C51,Tabelle1!A:A)),"",LOOKUP(C51,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C51,assignSchematalist!A:A)),"",LOOKUP(C51,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(D51=C51,LOOKUP(C51,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D51=C51,LOOKUP(C51,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F51" t="str">
         <f>IF(E51="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C51),"$L",E51))</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A51),"$L",$B51),"$T",$C51),"$SN",$G51)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefZahlgrenzentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2733,19 +3238,23 @@
         <v>61</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(ISNA(LOOKUP(C52,Tabelle1!A:A)),"",LOOKUP(C52,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C52,assignSchematalist!A:A)),"",LOOKUP(C52,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(D52=C52,LOOKUP(C52,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D52=C52,LOOKUP(C52,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F52" t="str">
         <f>IF(E52="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C52),"$L",E52))</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A52),"$L",$B52),"$T",$C52),"$SN",$G52)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_Zahlgrenzentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2756,19 +3265,23 @@
         <v>62</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(ISNA(LOOKUP(C53,Tabelle1!A:A)),"",LOOKUP(C53,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C53,assignSchematalist!A:A)),"",LOOKUP(C53,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(D53=C53,LOOKUP(C53,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D53=C53,LOOKUP(C53,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F53" t="str">
         <f>IF(E53="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C53),"$L",E53))</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A53),"$L",$B53),"$T",$C53),"$SN",$G53)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_ZahlgrenzentypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2779,19 +3292,23 @@
         <v>63</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(ISNA(LOOKUP(C54,Tabelle1!A:A)),"",LOOKUP(C54,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C54,assignSchematalist!A:A)),"",LOOKUP(C54,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(D54=C54,LOOKUP(C54,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D54=C54,LOOKUP(C54,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F54" t="str">
         <f>IF(E54="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C54),"$L",E54))</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A54),"$L",$B54),"$T",$C54),"$SN",$G54)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Preisstufendirektwahl_Type";""</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2802,19 +3319,23 @@
         <v>64</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(ISNA(LOOKUP(C55,Tabelle1!A:A)),"",LOOKUP(C55,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C55,assignSchematalist!A:A)),"",LOOKUP(C55,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(D55=C55,LOOKUP(C55,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D55=C55,LOOKUP(C55,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F55" t="str">
         <f>IF(E55="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C55),"$L",E55))</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A55),"$L",$B55),"$T",$C55),"$SN",$G55)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Preisspalten_Type";""</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2825,19 +3346,23 @@
         <v>65</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(ISNA(LOOKUP(C56,Tabelle1!A:A)),"",LOOKUP(C56,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C56,assignSchematalist!A:A)),"",LOOKUP(C56,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(D56=C56,LOOKUP(C56,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D56=C56,LOOKUP(C56,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F56" t="str">
         <f>IF(E56="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C56),"$L",E56))</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A56),"$L",$B56),"$T",$C56),"$SN",$G56)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Preisstufen_Type";""</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2848,19 +3373,23 @@
         <v>66</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(ISNA(LOOKUP(C57,Tabelle1!A:A)),"",LOOKUP(C57,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C57,assignSchematalist!A:A)),"",LOOKUP(C57,assignSchematalist!A:A))</f>
         <v>Sammelbeleg_Type</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(D57=C57,LOOKUP(C57,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D57=C57,LOOKUP(C57,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F57" t="str">
         <f>IF(E57="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C57),"$L",E57))</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A57),"$L",$B57),"$T",$C57),"$SN",$G57)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"SortenTarifarten_Type";""</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2871,19 +3400,23 @@
         <v>67</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(ISNA(LOOKUP(C58,Tabelle1!A:A)),"",LOOKUP(C58,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C58,assignSchematalist!A:A)),"",LOOKUP(C58,assignSchematalist!A:A))</f>
         <v>Sammelbeleg_Type</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(D58=C58,LOOKUP(C58,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D58=C58,LOOKUP(C58,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F58" t="str">
         <f>IF(E58="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C58),"$L",E58))</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A58),"$L",$B58),"$T",$C58),"$SN",$G58)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Sorten_Type";""</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2894,19 +3427,23 @@
         <v>68</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(ISNA(LOOKUP(C59,Tabelle1!A:A)),"",LOOKUP(C59,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C59,assignSchematalist!A:A)),"",LOOKUP(C59,assignSchematalist!A:A))</f>
         <v>Vorverkauf_Type</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(D59=C59,LOOKUP(C59,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D59=C59,LOOKUP(C59,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F59" t="str">
         <f>IF(E59="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C59),"$L",E59))</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A59),"$L",$B59),"$T",$C59),"$SN",$G59)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Zusatzsorten_Type";""</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2917,19 +3454,23 @@
         <v>69</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(ISNA(LOOKUP(C60,Tabelle1!A:A)),"",LOOKUP(C60,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C60,assignSchematalist!A:A)),"",LOOKUP(C60,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(D60=C60,LOOKUP(C60,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D60=C60,LOOKUP(C60,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F60" t="str">
         <f>IF(E60="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C60),"$L",E60))</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A60),"$L",$B60),"$T",$C60),"$SN",$G60)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Preise_Type";""</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2940,19 +3481,23 @@
         <v>70</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(ISNA(LOOKUP(C61,Tabelle1!A:A)),"",LOOKUP(C61,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C61,assignSchematalist!A:A)),"",LOOKUP(C61,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(D61=C61,LOOKUP(C61,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D61=C61,LOOKUP(C61,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F61" t="str">
         <f>IF(E61="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C61),"$L",E61))</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A61),"$L",$B61),"$T",$C61),"$SN",$G61)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"PreisstufenErmittlungen_Type";""</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2963,19 +3508,23 @@
         <v>71</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(ISNA(LOOKUP(C62,Tabelle1!A:A)),"",LOOKUP(C62,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C62,assignSchematalist!A:A)),"",LOOKUP(C62,assignSchematalist!A:A))</f>
         <v>Sammelbeleg_Type</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(D62=C62,LOOKUP(C62,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D62=C62,LOOKUP(C62,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F62" t="str">
         <f>IF(E62="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C62),"$L",E62))</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A62),"$L",$B62),"$T",$C62),"$SN",$G62)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"SortengruppenErmittlungen_Type";""</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2986,19 +3535,23 @@
         <v>72</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(ISNA(LOOKUP(C63,Tabelle1!A:A)),"",LOOKUP(C63,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C63,assignSchematalist!A:A)),"",LOOKUP(C63,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(D63=C63,LOOKUP(C63,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D63=C63,LOOKUP(C63,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F63" t="str">
         <f>IF(E63="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C63),"$L",E63))</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A63),"$L",$B63),"$T",$C63),"$SN",$G63)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"OrtspunkteTG_Type";""</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3009,19 +3562,23 @@
         <v>73</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(ISNA(LOOKUP(C64,Tabelle1!A:A)),"",LOOKUP(C64,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C64,assignSchematalist!A:A)),"",LOOKUP(C64,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(D64=C64,LOOKUP(C64,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D64=C64,LOOKUP(C64,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F64" t="str">
         <f>IF(E64="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C64),"$L",E64))</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A64),"$L",$B64),"$T",$C64),"$SN",$G64)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"OrtspunkteKA_Type";""</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3032,19 +3589,23 @@
         <v>74</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(ISNA(LOOKUP(C65,Tabelle1!A:A)),"",LOOKUP(C65,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C65,assignSchematalist!A:A)),"",LOOKUP(C65,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(D65=C65,LOOKUP(C65,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D65=C65,LOOKUP(C65,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F65" t="str">
         <f>IF(E65="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C65),"$L",E65))</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A65),"$L",$B65),"$T",$C65),"$SN",$G65)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Ortspunkte_Type";""</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -3055,19 +3616,23 @@
         <v>75</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(ISNA(LOOKUP(C66,Tabelle1!A:A)),"",LOOKUP(C66,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C66,assignSchematalist!A:A)),"",LOOKUP(C66,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(D66=C66,LOOKUP(C66,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D66=C66,LOOKUP(C66,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F66" t="str">
         <f>IF(E66="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C66),"$L",E66))</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A66),"$L",$B66),"$T",$C66),"$SN",$G66)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Linien_Type";""</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -3078,19 +3643,23 @@
         <v>76</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(ISNA(LOOKUP(C67,Tabelle1!A:A)),"",LOOKUP(C67,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C67,assignSchematalist!A:A)),"",LOOKUP(C67,assignSchematalist!A:A))</f>
         <v>Vorverkauf_Type</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(D67=C67,LOOKUP(C67,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D67=C67,LOOKUP(C67,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F67" t="str">
         <f>IF(E67="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C67),"$L",E67))</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A67),"$L",$B67),"$T",$C67),"$SN",$G67)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Wege_Type";""</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3101,42 +3670,53 @@
         <v>77</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(ISNA(LOOKUP(C68,Tabelle1!A:A)),"",LOOKUP(C68,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C68,assignSchematalist!A:A)),"",LOOKUP(C68,assignSchematalist!A:A))</f>
         <v>Vorverkauf_Type</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(D68=C68,LOOKUP(C68,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D68=C68,LOOKUP(C68,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F68" t="str">
         <f>IF(E68="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C68),"$L",E68))</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A68),"$L",$B68),"$T",$C68),"$SN",$G68)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Wegpositionen_Type";""</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(ISNA(LOOKUP(C69,Tabelle1!A:A)),"",LOOKUP(C69,Tabelle1!A:A))</f>
-        <v>FLOAT1</v>
+        <f>IF(ISNA(LOOKUP(C69,assignSchematalist!A:A)),"",LOOKUP(C69,assignSchematalist!A:A))</f>
+        <v>DynAttributWert_Subtype</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(D69=C69,LOOKUP(C69,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D69=C69,LOOKUP(C69,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F69" t="str">
         <f>IF(E69="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C69),"$L",E69))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DynAttributWert_Subtype&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G69" t="s">
+        <v>227</v>
+      </c>
+      <c r="H69" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A69),"$L",$B69),"$T",$C69),"$SN",$G69)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"DynAttributWert_Subtype";"Technisch"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3147,65 +3727,83 @@
         <v>79</v>
       </c>
       <c r="D70" t="str">
-        <f>IF(ISNA(LOOKUP(C70,Tabelle1!A:A)),"",LOOKUP(C70,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C70,assignSchematalist!A:A)),"",LOOKUP(C70,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(D70=C70,LOOKUP(C70,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D70=C70,LOOKUP(C70,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F70" t="str">
         <f>IF(E70="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C70),"$L",E70))</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A70),"$L",$B70),"$T",$C70),"$SN",$G70)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_ProjektspezifischBitfeld_Type";""</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(ISNA(LOOKUP(C71,Tabelle1!A:A)),"",LOOKUP(C71,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C71,assignSchematalist!A:A)),"",LOOKUP(C71,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(D71=C71,LOOKUP(C71,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D71=C71,LOOKUP(C71,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F71" t="str">
         <f>IF(E71="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C71),"$L",E71))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;FLOAT1&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G71" t="s">
+        <v>227</v>
+      </c>
+      <c r="H71" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A71),"$L",$B71),"$T",$C71),"$SN",$G71)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"FLOAT1";"Technisch"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D72" t="str">
-        <f>IF(ISNA(LOOKUP(C72,Tabelle1!A:A)),"",LOOKUP(C72,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C72,assignSchematalist!A:A)),"",LOOKUP(C72,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(D72=C72,LOOKUP(C72,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D72=C72,LOOKUP(C72,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F72" t="str">
         <f>IF(E72="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C72),"$L",E72))</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>227</v>
+      </c>
+      <c r="H72" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A72),"$L",$B72),"$T",$C72),"$SN",$G72)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Angebot,Basis,Tarif,Tarifstrecken";"ID_Projektspezifisch_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3216,19 +3814,23 @@
         <v>82</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(ISNA(LOOKUP(C73,Tabelle1!A:A)),"",LOOKUP(C73,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C73,assignSchematalist!A:A)),"",LOOKUP(C73,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(D73=C73,LOOKUP(C73,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D73=C73,LOOKUP(C73,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F73" t="str">
         <f>IF(E73="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C73),"$L",E73))</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A73),"$L",$B73),"$T",$C73),"$SN",$G73)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_SortentypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3239,19 +3841,23 @@
         <v>83</v>
       </c>
       <c r="D74" t="str">
-        <f>IF(ISNA(LOOKUP(C74,Tabelle1!A:A)),"",LOOKUP(C74,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C74,assignSchematalist!A:A)),"",LOOKUP(C74,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(D74=C74,LOOKUP(C74,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D74=C74,LOOKUP(C74,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F74" t="str">
         <f>IF(E74="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C74),"$L",E74))</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A74),"$L",$B74),"$T",$C74),"$SN",$G74)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Sortentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3262,19 +3868,23 @@
         <v>84</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(ISNA(LOOKUP(C75,Tabelle1!A:A)),"",LOOKUP(C75,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C75,assignSchematalist!A:A)),"",LOOKUP(C75,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(D75=C75,LOOKUP(C75,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D75=C75,LOOKUP(C75,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F75" t="str">
         <f>IF(E75="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C75),"$L",E75))</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A75),"$L",$B75),"$T",$C75),"$SN",$G75)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_TarifpunkttypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3285,19 +3895,23 @@
         <v>85</v>
       </c>
       <c r="D76" t="str">
-        <f>IF(ISNA(LOOKUP(C76,Tabelle1!A:A)),"",LOOKUP(C76,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C76,assignSchematalist!A:A)),"",LOOKUP(C76,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(D76=C76,LOOKUP(C76,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D76=C76,LOOKUP(C76,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F76" t="str">
         <f>IF(E76="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C76),"$L",E76))</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A76),"$L",$B76),"$T",$C76),"$SN",$G76)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Tarifpunkttyp_Type";""</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3308,19 +3922,23 @@
         <v>86</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(ISNA(LOOKUP(C77,Tabelle1!A:A)),"",LOOKUP(C77,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C77,assignSchematalist!A:A)),"",LOOKUP(C77,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(D77=C77,LOOKUP(C77,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D77=C77,LOOKUP(C77,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F77" t="str">
         <f>IF(E77="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C77),"$L",E77))</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A77),"$L",$B77),"$T",$C77),"$SN",$G77)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_OrtspunkttypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3331,19 +3949,23 @@
         <v>87</v>
       </c>
       <c r="D78" t="str">
-        <f>IF(ISNA(LOOKUP(C78,Tabelle1!A:A)),"",LOOKUP(C78,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C78,assignSchematalist!A:A)),"",LOOKUP(C78,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(D78=C78,LOOKUP(C78,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D78=C78,LOOKUP(C78,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F78" t="str">
         <f>IF(E78="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C78),"$L",E78))</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A78),"$L",$B78),"$T",$C78),"$SN",$G78)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_Ortspunkttyp_Type";""</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3354,19 +3976,23 @@
         <v>88</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(ISNA(LOOKUP(C79,Tabelle1!A:A)),"",LOOKUP(C79,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C79,assignSchematalist!A:A)),"",LOOKUP(C79,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(D79=C79,LOOKUP(C79,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D79=C79,LOOKUP(C79,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F79" t="str">
         <f>IF(E79="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C79),"$L",E79))</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A79),"$L",$B79),"$T",$C79),"$SN",$G79)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_OTPTypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3377,19 +4003,23 @@
         <v>89</v>
       </c>
       <c r="D80" t="str">
-        <f>IF(ISNA(LOOKUP(C80,Tabelle1!A:A)),"",LOOKUP(C80,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C80,assignSchematalist!A:A)),"",LOOKUP(C80,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(D80=C80,LOOKUP(C80,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D80=C80,LOOKUP(C80,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F80" t="str">
         <f>IF(E80="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C80),"$L",E80))</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A80),"$L",$B80),"$T",$C80),"$SN",$G80)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_OTPTyp_Type";""</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3400,19 +4030,23 @@
         <v>90</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(ISNA(LOOKUP(C81,Tabelle1!A:A)),"",LOOKUP(C81,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C81,assignSchematalist!A:A)),"",LOOKUP(C81,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(D81=C81,LOOKUP(C81,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D81=C81,LOOKUP(C81,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F81" t="str">
         <f>IF(E81="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C81),"$L",E81))</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A81),"$L",$B81),"$T",$C81),"$SN",$G81)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_PreisquelleHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3423,19 +4057,23 @@
         <v>91</v>
       </c>
       <c r="D82" t="str">
-        <f>IF(ISNA(LOOKUP(C82,Tabelle1!A:A)),"",LOOKUP(C82,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C82,assignSchematalist!A:A)),"",LOOKUP(C82,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(D82=C82,LOOKUP(C82,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D82=C82,LOOKUP(C82,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F82" t="str">
         <f>IF(E82="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C82),"$L",E82))</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A82),"$L",$B82),"$T",$C82),"$SN",$G82)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Preisquelle_Type";""</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3446,19 +4084,23 @@
         <v>92</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(ISNA(LOOKUP(C83,Tabelle1!A:A)),"",LOOKUP(C83,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C83,assignSchematalist!A:A)),"",LOOKUP(C83,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(D83=C83,LOOKUP(C83,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D83=C83,LOOKUP(C83,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F83" t="str">
         <f>IF(E83="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C83),"$L",E83))</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A83),"$L",$B83),"$T",$C83),"$SN",$G83)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_PreisspaltentypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3469,19 +4111,23 @@
         <v>93</v>
       </c>
       <c r="D84" t="str">
-        <f>IF(ISNA(LOOKUP(C84,Tabelle1!A:A)),"",LOOKUP(C84,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C84,assignSchematalist!A:A)),"",LOOKUP(C84,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E84" t="str">
-        <f>IF(D84=C84,LOOKUP(C84,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D84=C84,LOOKUP(C84,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F84" t="str">
         <f>IF(E84="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C84),"$L",E84))</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A84),"$L",$B84),"$T",$C84),"$SN",$G84)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Preisspaltentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3492,19 +4138,23 @@
         <v>94</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(ISNA(LOOKUP(C85,Tabelle1!A:A)),"",LOOKUP(C85,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C85,assignSchematalist!A:A)),"",LOOKUP(C85,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(D85=C85,LOOKUP(C85,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D85=C85,LOOKUP(C85,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F85" t="str">
         <f>IF(E85="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C85),"$L",E85))</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A85),"$L",$B85),"$T",$C85),"$SN",$G85)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_RelcodegruppentypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3515,19 +4165,23 @@
         <v>95</v>
       </c>
       <c r="D86" t="str">
-        <f>IF(ISNA(LOOKUP(C86,Tabelle1!A:A)),"",LOOKUP(C86,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C86,assignSchematalist!A:A)),"",LOOKUP(C86,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(D86=C86,LOOKUP(C86,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D86=C86,LOOKUP(C86,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F86" t="str">
         <f>IF(E86="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C86),"$L",E86))</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A86),"$L",$B86),"$T",$C86),"$SN",$G86)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_Relcodegruppentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3538,19 +4192,23 @@
         <v>96</v>
       </c>
       <c r="D87" t="str">
-        <f>IF(ISNA(LOOKUP(C87,Tabelle1!A:A)),"",LOOKUP(C87,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C87,assignSchematalist!A:A)),"",LOOKUP(C87,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(D87=C87,LOOKUP(C87,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D87=C87,LOOKUP(C87,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F87" t="str">
         <f>IF(E87="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C87),"$L",E87))</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A87),"$L",$B87),"$T",$C87),"$SN",$G87)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_SortengruppentypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3561,88 +4219,113 @@
         <v>97</v>
       </c>
       <c r="D88" t="str">
-        <f>IF(ISNA(LOOKUP(C88,Tabelle1!A:A)),"",LOOKUP(C88,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C88,assignSchematalist!A:A)),"",LOOKUP(C88,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(D88=C88,LOOKUP(C88,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D88=C88,LOOKUP(C88,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F88" t="str">
         <f>IF(E88="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C88),"$L",E88))</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A88),"$L",$B88),"$T",$C88),"$SN",$G88)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_Sortengruppentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D89" t="str">
-        <f>IF(ISNA(LOOKUP(C89,Tabelle1!A:A)),"",LOOKUP(C89,Tabelle1!A:A))</f>
-        <v>INT8</v>
+        <f>IF(ISNA(LOOKUP(C89,assignSchematalist!A:A)),"",LOOKUP(C89,assignSchematalist!A:A))</f>
+        <v>INT1</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(D89=C89,LOOKUP(C89,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D89=C89,LOOKUP(C89,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F89" t="str">
         <f>IF(E89="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C89),"$L",E89))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;INT1&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G89" t="s">
+        <v>227</v>
+      </c>
+      <c r="H89" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A89),"$L",$B89),"$T",$C89),"$SN",$G89)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"INT1";"Technisch"</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D90" t="str">
-        <f>IF(ISNA(LOOKUP(C90,Tabelle1!A:A)),"",LOOKUP(C90,Tabelle1!A:A))</f>
-        <v>INT8</v>
+        <f>IF(ISNA(LOOKUP(C90,assignSchematalist!A:A)),"",LOOKUP(C90,assignSchematalist!A:A))</f>
+        <v>INT2</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(D90=C90,LOOKUP(C90,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D90=C90,LOOKUP(C90,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F90" t="str">
         <f>IF(E90="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C90),"$L",E90))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;INT2&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G90" t="s">
+        <v>227</v>
+      </c>
+      <c r="H90" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A90),"$L",$B90),"$T",$C90),"$SN",$G90)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"INT2";"Technisch"</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D91" t="str">
-        <f>IF(ISNA(LOOKUP(C91,Tabelle1!A:A)),"",LOOKUP(C91,Tabelle1!A:A))</f>
-        <v>INT8</v>
+        <f>IF(ISNA(LOOKUP(C91,assignSchematalist!A:A)),"",LOOKUP(C91,assignSchematalist!A:A))</f>
+        <v>INT2</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(D91=C91,LOOKUP(C91,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D91=C91,LOOKUP(C91,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F91" t="str">
         <f>IF(E91="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C91),"$L",E91))</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A91),"$L",$B91),"$T",$C91),"$SN",$G91)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Angebot,Basis,Tarif,Tarifstrecken";"INT4";"Technisch"</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3653,19 +4336,23 @@
         <v>101</v>
       </c>
       <c r="D92" t="str">
-        <f>IF(ISNA(LOOKUP(C92,Tabelle1!A:A)),"",LOOKUP(C92,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C92,assignSchematalist!A:A)),"",LOOKUP(C92,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(D92=C92,LOOKUP(C92,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D92=C92,LOOKUP(C92,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F92" t="str">
         <f>IF(E92="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C92),"$L",E92))</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A92),"$L",$B92),"$T",$C92),"$SN",$G92)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefTarifpunkttyp_Type";""</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3676,19 +4363,23 @@
         <v>102</v>
       </c>
       <c r="D93" t="str">
-        <f>IF(ISNA(LOOKUP(C93,Tabelle1!A:A)),"",LOOKUP(C93,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C93,assignSchematalist!A:A)),"",LOOKUP(C93,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(D93=C93,LOOKUP(C93,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D93=C93,LOOKUP(C93,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F93" t="str">
         <f>IF(E93="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C93),"$L",E93))</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A93),"$L",$B93),"$T",$C93),"$SN",$G93)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefSortentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3699,19 +4390,23 @@
         <v>103</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(ISNA(LOOKUP(C94,Tabelle1!A:A)),"",LOOKUP(C94,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C94,assignSchematalist!A:A)),"",LOOKUP(C94,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(D94=C94,LOOKUP(C94,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D94=C94,LOOKUP(C94,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F94" t="str">
         <f>IF(E94="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C94),"$L",E94))</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A94),"$L",$B94),"$T",$C94),"$SN",$G94)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"DefSortengruppentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3719,45 +4414,59 @@
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(ISNA(LOOKUP(C95,Tabelle1!A:A)),"",LOOKUP(C95,Tabelle1!A:A))</f>
-        <v>DauerMinuten</v>
+        <f>IF(ISNA(LOOKUP(C95,assignSchematalist!A:A)),"",LOOKUP(C95,assignSchematalist!A:A))</f>
+        <v>INT8</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(D95=C95,LOOKUP(C95,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D95=C95,LOOKUP(C95,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F95" t="str">
         <f>IF(E95="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C95),"$L",E95))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;INT8&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G95" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A95),"$L",$B95),"$T",$C95),"$SN",$G95)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"INT8";"Technisch"</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="D96" t="str">
-        <f>IF(ISNA(LOOKUP(C96,Tabelle1!A:A)),"",LOOKUP(C96,Tabelle1!A:A))</f>
-        <v>Umschalttag_Type</v>
+        <f>IF(ISNA(LOOKUP(C96,assignSchematalist!A:A)),"",LOOKUP(C96,assignSchematalist!A:A))</f>
+        <v>INT8</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(D96=C96,LOOKUP(C96,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D96=C96,LOOKUP(C96,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F96" t="str">
         <f>IF(E96="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C96),"$L",E96))</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>227</v>
+      </c>
+      <c r="H96" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A96),"$L",$B96),"$T",$C96),"$SN",$G96)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"Interpretationen_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3768,19 +4477,23 @@
         <v>106</v>
       </c>
       <c r="D97" t="str">
-        <f>IF(ISNA(LOOKUP(C97,Tabelle1!A:A)),"",LOOKUP(C97,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C97,assignSchematalist!A:A)),"",LOOKUP(C97,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(D97=C97,LOOKUP(C97,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D97=C97,LOOKUP(C97,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F97" t="str">
         <f>IF(E97="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C97),"$L",E97))</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A97),"$L",$B97),"$T",$C97),"$SN",$G97)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Mwst_Type";""</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3791,19 +4504,23 @@
         <v>107</v>
       </c>
       <c r="D98" t="str">
-        <f>IF(ISNA(LOOKUP(C98,Tabelle1!A:A)),"",LOOKUP(C98,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C98,assignSchematalist!A:A)),"",LOOKUP(C98,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(D98=C98,LOOKUP(C98,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D98=C98,LOOKUP(C98,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F98" t="str">
         <f>IF(E98="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C98),"$L",E98))</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A98),"$L",$B98),"$T",$C98),"$SN",$G98)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefPreisspaltentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3814,19 +4531,23 @@
         <v>108</v>
       </c>
       <c r="D99" t="str">
-        <f>IF(ISNA(LOOKUP(C99,Tabelle1!A:A)),"",LOOKUP(C99,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C99,assignSchematalist!A:A)),"",LOOKUP(C99,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(D99=C99,LOOKUP(C99,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D99=C99,LOOKUP(C99,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F99" t="str">
         <f>IF(E99="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C99),"$L",E99))</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A99),"$L",$B99),"$T",$C99),"$SN",$G99)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefFahrgasttyp_Type";""</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3837,19 +4558,23 @@
         <v>109</v>
       </c>
       <c r="D100" t="str">
-        <f>IF(ISNA(LOOKUP(C100,Tabelle1!A:A)),"",LOOKUP(C100,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C100,assignSchematalist!A:A)),"",LOOKUP(C100,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(D100=C100,LOOKUP(C100,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D100=C100,LOOKUP(C100,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F100" t="str">
         <f>IF(E100="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C100),"$L",E100))</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A100),"$L",$B100),"$T",$C100),"$SN",$G100)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_FahrgasttypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3860,19 +4585,23 @@
         <v>110</v>
       </c>
       <c r="D101" t="str">
-        <f>IF(ISNA(LOOKUP(C101,Tabelle1!A:A)),"",LOOKUP(C101,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C101,assignSchematalist!A:A)),"",LOOKUP(C101,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(D101=C101,LOOKUP(C101,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D101=C101,LOOKUP(C101,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F101" t="str">
         <f>IF(E101="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C101),"$L",E101))</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A101),"$L",$B101),"$T",$C101),"$SN",$G101)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Fahrgasttyp_Type";""</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3883,19 +4612,23 @@
         <v>111</v>
       </c>
       <c r="D102" t="str">
-        <f>IF(ISNA(LOOKUP(C102,Tabelle1!A:A)),"",LOOKUP(C102,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C102,assignSchematalist!A:A)),"",LOOKUP(C102,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E102" t="str">
-        <f>IF(D102=C102,LOOKUP(C102,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D102=C102,LOOKUP(C102,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F102" t="str">
         <f>IF(E102="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C102),"$L",E102))</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A102),"$L",$B102),"$T",$C102),"$SN",$G102)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefKomfortklasse_Type";""</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3906,19 +4639,23 @@
         <v>112</v>
       </c>
       <c r="D103" t="str">
-        <f>IF(ISNA(LOOKUP(C103,Tabelle1!A:A)),"",LOOKUP(C103,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C103,assignSchematalist!A:A)),"",LOOKUP(C103,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(D103=C103,LOOKUP(C103,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D103=C103,LOOKUP(C103,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F103" t="str">
         <f>IF(E103="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C103),"$L",E103))</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A103),"$L",$B103),"$T",$C103),"$SN",$G103)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_KomfortklasseHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3929,19 +4666,23 @@
         <v>113</v>
       </c>
       <c r="D104" t="str">
-        <f>IF(ISNA(LOOKUP(C104,Tabelle1!A:A)),"",LOOKUP(C104,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C104,assignSchematalist!A:A)),"",LOOKUP(C104,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(D104=C104,LOOKUP(C104,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D104=C104,LOOKUP(C104,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F104" t="str">
         <f>IF(E104="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C104),"$L",E104))</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A104),"$L",$B104),"$T",$C104),"$SN",$G104)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Komfortklasse_Type";""</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3952,19 +4693,23 @@
         <v>114</v>
       </c>
       <c r="D105" t="str">
-        <f>IF(ISNA(LOOKUP(C105,Tabelle1!A:A)),"",LOOKUP(C105,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C105,assignSchematalist!A:A)),"",LOOKUP(C105,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(D105=C105,LOOKUP(C105,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D105=C105,LOOKUP(C105,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F105" t="str">
         <f>IF(E105="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C105),"$L",E105))</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A105),"$L",$B105),"$T",$C105),"$SN",$G105)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefRabattklasse_Type";""</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3975,19 +4720,23 @@
         <v>115</v>
       </c>
       <c r="D106" t="str">
-        <f>IF(ISNA(LOOKUP(C106,Tabelle1!A:A)),"",LOOKUP(C106,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C106,assignSchematalist!A:A)),"",LOOKUP(C106,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(D106=C106,LOOKUP(C106,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D106=C106,LOOKUP(C106,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F106" t="str">
         <f>IF(E106="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C106),"$L",E106))</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A106),"$L",$B106),"$T",$C106),"$SN",$G106)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_RabattklasseHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3998,19 +4747,23 @@
         <v>116</v>
       </c>
       <c r="D107" t="str">
-        <f>IF(ISNA(LOOKUP(C107,Tabelle1!A:A)),"",LOOKUP(C107,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C107,assignSchematalist!A:A)),"",LOOKUP(C107,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(D107=C107,LOOKUP(C107,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D107=C107,LOOKUP(C107,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F107" t="str">
         <f>IF(E107="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C107),"$L",E107))</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A107),"$L",$B107),"$T",$C107),"$SN",$G107)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Rabattklasse_Type";""</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -4021,19 +4774,23 @@
         <v>117</v>
       </c>
       <c r="D108" t="str">
-        <f>IF(ISNA(LOOKUP(C108,Tabelle1!A:A)),"",LOOKUP(C108,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C108,assignSchematalist!A:A)),"",LOOKUP(C108,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(D108=C108,LOOKUP(C108,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D108=C108,LOOKUP(C108,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F108" t="str">
         <f>IF(E108="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C108),"$L",E108))</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A108),"$L",$B108),"$T",$C108),"$SN",$G108)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefPreisfindung_Type";""</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -4044,19 +4801,23 @@
         <v>118</v>
       </c>
       <c r="D109" t="str">
-        <f>IF(ISNA(LOOKUP(C109,Tabelle1!A:A)),"",LOOKUP(C109,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C109,assignSchematalist!A:A)),"",LOOKUP(C109,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(D109=C109,LOOKUP(C109,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D109=C109,LOOKUP(C109,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F109" t="str">
         <f>IF(E109="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C109),"$L",E109))</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A109),"$L",$B109),"$T",$C109),"$SN",$G109)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_PreisfindungHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -4067,19 +4828,23 @@
         <v>119</v>
       </c>
       <c r="D110" t="str">
-        <f>IF(ISNA(LOOKUP(C110,Tabelle1!A:A)),"",LOOKUP(C110,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C110,assignSchematalist!A:A)),"",LOOKUP(C110,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(D110=C110,LOOKUP(C110,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D110=C110,LOOKUP(C110,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F110" t="str">
         <f>IF(E110="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C110),"$L",E110))</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A110),"$L",$B110),"$T",$C110),"$SN",$G110)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Preisfindung_Type";""</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -4090,19 +4855,23 @@
         <v>120</v>
       </c>
       <c r="D111" t="str">
-        <f>IF(ISNA(LOOKUP(C111,Tabelle1!A:A)),"",LOOKUP(C111,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C111,assignSchematalist!A:A)),"",LOOKUP(C111,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(D111=C111,LOOKUP(C111,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D111=C111,LOOKUP(C111,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F111" t="str">
         <f>IF(E111="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C111),"$L",E111))</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A111),"$L",$B111),"$T",$C111),"$SN",$G111)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefSortenausgaberegelung_Type";""</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -4113,19 +4882,23 @@
         <v>121</v>
       </c>
       <c r="D112" t="str">
-        <f>IF(ISNA(LOOKUP(C112,Tabelle1!A:A)),"",LOOKUP(C112,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C112,assignSchematalist!A:A)),"",LOOKUP(C112,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(D112=C112,LOOKUP(C112,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D112=C112,LOOKUP(C112,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F112" t="str">
         <f>IF(E112="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C112),"$L",E112))</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A112),"$L",$B112),"$T",$C112),"$SN",$G112)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_SortenausgaberegelungHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4136,19 +4909,23 @@
         <v>122</v>
       </c>
       <c r="D113" t="str">
-        <f>IF(ISNA(LOOKUP(C113,Tabelle1!A:A)),"",LOOKUP(C113,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C113,assignSchematalist!A:A)),"",LOOKUP(C113,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(D113=C113,LOOKUP(C113,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D113=C113,LOOKUP(C113,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F113" t="str">
         <f>IF(E113="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C113),"$L",E113))</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A113),"$L",$B113),"$T",$C113),"$SN",$G113)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Sortenausgaberegelung_Type";""</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4159,19 +4936,23 @@
         <v>123</v>
       </c>
       <c r="D114" t="str">
-        <f>IF(ISNA(LOOKUP(C114,Tabelle1!A:A)),"",LOOKUP(C114,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C114,assignSchematalist!A:A)),"",LOOKUP(C114,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(D114=C114,LOOKUP(C114,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D114=C114,LOOKUP(C114,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F114" t="str">
         <f>IF(E114="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C114),"$L",E114))</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A114),"$L",$B114),"$T",$C114),"$SN",$G114)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefSortendruckregelung_Type";""</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4182,19 +4963,23 @@
         <v>124</v>
       </c>
       <c r="D115" t="str">
-        <f>IF(ISNA(LOOKUP(C115,Tabelle1!A:A)),"",LOOKUP(C115,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C115,assignSchematalist!A:A)),"",LOOKUP(C115,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E115" t="str">
-        <f>IF(D115=C115,LOOKUP(C115,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D115=C115,LOOKUP(C115,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F115" t="str">
         <f>IF(E115="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C115),"$L",E115))</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A115),"$L",$B115),"$T",$C115),"$SN",$G115)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_SortendruckregelungHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4205,19 +4990,23 @@
         <v>125</v>
       </c>
       <c r="D116" t="str">
-        <f>IF(ISNA(LOOKUP(C116,Tabelle1!A:A)),"",LOOKUP(C116,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C116,assignSchematalist!A:A)),"",LOOKUP(C116,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E116" t="str">
-        <f>IF(D116=C116,LOOKUP(C116,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D116=C116,LOOKUP(C116,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F116" t="str">
         <f>IF(E116="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C116),"$L",E116))</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A116),"$L",$B116),"$T",$C116),"$SN",$G116)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Sortendruckregelung_Type";""</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4228,19 +5017,23 @@
         <v>126</v>
       </c>
       <c r="D117" t="str">
-        <f>IF(ISNA(LOOKUP(C117,Tabelle1!A:A)),"",LOOKUP(C117,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C117,assignSchematalist!A:A)),"",LOOKUP(C117,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(D117=C117,LOOKUP(C117,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D117=C117,LOOKUP(C117,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F117" t="str">
         <f>IF(E117="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C117),"$L",E117))</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H117" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A117),"$L",$B117),"$T",$C117),"$SN",$G117)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefReisetyp_Type";""</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4251,19 +5044,23 @@
         <v>127</v>
       </c>
       <c r="D118" t="str">
-        <f>IF(ISNA(LOOKUP(C118,Tabelle1!A:A)),"",LOOKUP(C118,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C118,assignSchematalist!A:A)),"",LOOKUP(C118,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E118" t="str">
-        <f>IF(D118=C118,LOOKUP(C118,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D118=C118,LOOKUP(C118,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F118" t="str">
         <f>IF(E118="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C118),"$L",E118))</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A118),"$L",$B118),"$T",$C118),"$SN",$G118)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_ReisetypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4274,19 +5071,23 @@
         <v>128</v>
       </c>
       <c r="D119" t="str">
-        <f>IF(ISNA(LOOKUP(C119,Tabelle1!A:A)),"",LOOKUP(C119,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C119,assignSchematalist!A:A)),"",LOOKUP(C119,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(D119=C119,LOOKUP(C119,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D119=C119,LOOKUP(C119,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F119" t="str">
         <f>IF(E119="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C119),"$L",E119))</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A119),"$L",$B119),"$T",$C119),"$SN",$G119)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Reisetyp_Type";""</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4297,19 +5098,23 @@
         <v>129</v>
       </c>
       <c r="D120" t="str">
-        <f>IF(ISNA(LOOKUP(C120,Tabelle1!A:A)),"",LOOKUP(C120,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C120,assignSchematalist!A:A)),"",LOOKUP(C120,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E120" t="str">
-        <f>IF(D120=C120,LOOKUP(C120,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D120=C120,LOOKUP(C120,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F120" t="str">
         <f>IF(E120="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C120),"$L",E120))</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A120),"$L",$B120),"$T",$C120),"$SN",$G120)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefNachbarhaltestellenbeziehung_Type";""</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -4320,19 +5125,23 @@
         <v>130</v>
       </c>
       <c r="D121" t="str">
-        <f>IF(ISNA(LOOKUP(C121,Tabelle1!A:A)),"",LOOKUP(C121,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C121,assignSchematalist!A:A)),"",LOOKUP(C121,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E121" t="str">
-        <f>IF(D121=C121,LOOKUP(C121,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D121=C121,LOOKUP(C121,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F121" t="str">
         <f>IF(E121="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C121),"$L",E121))</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A121),"$L",$B121),"$T",$C121),"$SN",$G121)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_NachbarhaltestellenbeziehungHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -4343,19 +5152,23 @@
         <v>131</v>
       </c>
       <c r="D122" t="str">
-        <f>IF(ISNA(LOOKUP(C122,Tabelle1!A:A)),"",LOOKUP(C122,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C122,assignSchematalist!A:A)),"",LOOKUP(C122,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E122" t="str">
-        <f>IF(D122=C122,LOOKUP(C122,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D122=C122,LOOKUP(C122,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F122" t="str">
         <f>IF(E122="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C122),"$L",E122))</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A122),"$L",$B122),"$T",$C122),"$SN",$G122)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"ID_Nachbarhaltestellenbeziehung_Type";""</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -4366,19 +5179,23 @@
         <v>132</v>
       </c>
       <c r="D123" t="str">
-        <f>IF(ISNA(LOOKUP(C123,Tabelle1!A:A)),"",LOOKUP(C123,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C123,assignSchematalist!A:A)),"",LOOKUP(C123,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E123" t="str">
-        <f>IF(D123=C123,LOOKUP(C123,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D123=C123,LOOKUP(C123,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F123" t="str">
         <f>IF(E123="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C123),"$L",E123))</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A123),"$L",$B123),"$T",$C123),"$SN",$G123)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefVertriebswege_Type";""</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4389,19 +5206,23 @@
         <v>133</v>
       </c>
       <c r="D124" t="str">
-        <f>IF(ISNA(LOOKUP(C124,Tabelle1!A:A)),"",LOOKUP(C124,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C124,assignSchematalist!A:A)),"",LOOKUP(C124,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E124" t="str">
-        <f>IF(D124=C124,LOOKUP(C124,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D124=C124,LOOKUP(C124,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F124" t="str">
         <f>IF(E124="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C124),"$L",E124))</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A124),"$L",$B124),"$T",$C124),"$SN",$G124)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_VertriebswegeHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -4412,19 +5233,23 @@
         <v>134</v>
       </c>
       <c r="D125" t="str">
-        <f>IF(ISNA(LOOKUP(C125,Tabelle1!A:A)),"",LOOKUP(C125,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C125,assignSchematalist!A:A)),"",LOOKUP(C125,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(D125=C125,LOOKUP(C125,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D125=C125,LOOKUP(C125,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F125" t="str">
         <f>IF(E125="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C125),"$L",E125))</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A125),"$L",$B125),"$T",$C125),"$SN",$G125)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"ID_Vertriebswege_Type";""</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -4435,19 +5260,23 @@
         <v>135</v>
       </c>
       <c r="D126" t="str">
-        <f>IF(ISNA(LOOKUP(C126,Tabelle1!A:A)),"",LOOKUP(C126,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C126,assignSchematalist!A:A)),"",LOOKUP(C126,assignSchematalist!A:A))</f>
         <v>Vorverkauf_Type</v>
       </c>
       <c r="E126" t="str">
-        <f>IF(D126=C126,LOOKUP(C126,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D126=C126,LOOKUP(C126,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Tarif,Angebot</v>
       </c>
       <c r="F126" t="str">
         <f>IF(E126="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C126),"$L",E126))</f>
         <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Vorverkauf_Type&lt;/name&gt;&lt;schemalist&gt;Tarif,Angebot&lt;/schemalist&gt;&lt;/type&gt;</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A126),"$L",$B126),"$T",$C126),"$SN",$G126)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"Vorverkauf_Type";""</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4458,19 +5287,23 @@
         <v>136</v>
       </c>
       <c r="D127" t="str">
-        <f>IF(ISNA(LOOKUP(C127,Tabelle1!A:A)),"",LOOKUP(C127,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C127,assignSchematalist!A:A)),"",LOOKUP(C127,assignSchematalist!A:A))</f>
         <v>Umschalttag_Type</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(D127=C127,LOOKUP(C127,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D127=C127,LOOKUP(C127,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Tarif,Angebot</v>
       </c>
       <c r="F127" t="str">
         <f>IF(E127="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C127),"$L",E127))</f>
         <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Umschalttag_Type&lt;/name&gt;&lt;schemalist&gt;Tarif,Angebot&lt;/schemalist&gt;&lt;/type&gt;</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A127),"$L",$B127),"$T",$C127),"$SN",$G127)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"Umschalttag_Type";""</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -4481,19 +5314,23 @@
         <v>137</v>
       </c>
       <c r="D128" t="str">
-        <f>IF(ISNA(LOOKUP(C128,Tabelle1!A:A)),"",LOOKUP(C128,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C128,assignSchematalist!A:A)),"",LOOKUP(C128,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E128" t="str">
-        <f>IF(D128=C128,LOOKUP(C128,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D128=C128,LOOKUP(C128,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F128" t="str">
         <f>IF(E128="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C128),"$L",E128))</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H128" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A128),"$L",$B128),"$T",$C128),"$SN",$G128)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"GueltigkeitszeitRegeln_Type";""</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -4504,19 +5341,23 @@
         <v>138</v>
       </c>
       <c r="D129" t="str">
-        <f>IF(ISNA(LOOKUP(C129,Tabelle1!A:A)),"",LOOKUP(C129,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C129,assignSchematalist!A:A)),"",LOOKUP(C129,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E129" t="str">
-        <f>IF(D129=C129,LOOKUP(C129,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D129=C129,LOOKUP(C129,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F129" t="str">
         <f>IF(E129="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C129),"$L",E129))</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A129),"$L",$B129),"$T",$C129),"$SN",$G129)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefZahlungsarten_Type";""</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -4527,19 +5368,23 @@
         <v>139</v>
       </c>
       <c r="D130" t="str">
-        <f>IF(ISNA(LOOKUP(C130,Tabelle1!A:A)),"",LOOKUP(C130,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C130,assignSchematalist!A:A)),"",LOOKUP(C130,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E130" t="str">
-        <f>IF(D130=C130,LOOKUP(C130,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D130=C130,LOOKUP(C130,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F130" t="str">
         <f>IF(E130="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C130),"$L",E130))</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H130" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A130),"$L",$B130),"$T",$C130),"$SN",$G130)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Zahlungsarten_Type";""</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -4550,19 +5395,23 @@
         <v>140</v>
       </c>
       <c r="D131" t="str">
-        <f>IF(ISNA(LOOKUP(C131,Tabelle1!A:A)),"",LOOKUP(C131,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C131,assignSchematalist!A:A)),"",LOOKUP(C131,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E131" t="str">
-        <f>IF(D131=C131,LOOKUP(C131,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D131=C131,LOOKUP(C131,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F131" t="str">
         <f>IF(E131="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C131),"$L",E131))</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A131),"$L",$B131),"$T",$C131),"$SN",$G131)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_ZahlungsartenHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -4573,19 +5422,23 @@
         <v>141</v>
       </c>
       <c r="D132" t="str">
-        <f>IF(ISNA(LOOKUP(C132,Tabelle1!A:A)),"",LOOKUP(C132,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C132,assignSchematalist!A:A)),"",LOOKUP(C132,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(D132=C132,LOOKUP(C132,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D132=C132,LOOKUP(C132,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F132" t="str">
         <f>IF(E132="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C132),"$L",E132))</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H132" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A132),"$L",$B132),"$T",$C132),"$SN",$G132)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"Tarifarten_Type";""</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -4596,19 +5449,23 @@
         <v>142</v>
       </c>
       <c r="D133" t="str">
-        <f>IF(ISNA(LOOKUP(C133,Tabelle1!A:A)),"",LOOKUP(C133,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C133,assignSchematalist!A:A)),"",LOOKUP(C133,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(D133=C133,LOOKUP(C133,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D133=C133,LOOKUP(C133,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F133" t="str">
         <f>IF(E133="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C133),"$L",E133))</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A133),"$L",$B133),"$T",$C133),"$SN",$G133)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefRelationscodegruppentyp_Type";""</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -4619,65 +5476,83 @@
         <v>143</v>
       </c>
       <c r="D134" t="str">
-        <f>IF(ISNA(LOOKUP(C134,Tabelle1!A:A)),"",LOOKUP(C134,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C134,assignSchematalist!A:A)),"",LOOKUP(C134,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E134" t="str">
-        <f>IF(D134=C134,LOOKUP(C134,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D134=C134,LOOKUP(C134,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F134" t="str">
         <f>IF(E134="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C134),"$L",E134))</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A134),"$L",$B134),"$T",$C134),"$SN",$G134)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefOrtspunkttyp_Type";""</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D135" t="str">
-        <f>IF(ISNA(LOOKUP(C135,Tabelle1!A:A)),"",LOOKUP(C135,Tabelle1!A:A))</f>
-        <v>Umschalttag_Type</v>
+        <f>IF(ISNA(LOOKUP(C135,assignSchematalist!A:A)),"",LOOKUP(C135,assignSchematalist!A:A))</f>
+        <v>INT8</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(D135=C135,LOOKUP(C135,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D135=C135,LOOKUP(C135,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F135" t="str">
         <f>IF(E135="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C135),"$L",E135))</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>227</v>
+      </c>
+      <c r="H135" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A135),"$L",$B135),"$T",$C135),"$SN",$G135)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"Interpretationsschluessel_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D136" t="str">
-        <f>IF(ISNA(LOOKUP(C136,Tabelle1!A:A)),"",LOOKUP(C136,Tabelle1!A:A))</f>
-        <v/>
+        <f>IF(ISNA(LOOKUP(C136,assignSchematalist!A:A)),"",LOOKUP(C136,assignSchematalist!A:A))</f>
+        <v>INT8</v>
       </c>
       <c r="E136" t="str">
-        <f>IF(D136=C136,LOOKUP(C136,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D136=C136,LOOKUP(C136,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F136" t="str">
         <f>IF(E136="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C136),"$L",E136))</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>227</v>
+      </c>
+      <c r="H136" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A136),"$L",$B136),"$T",$C136),"$SN",$G136)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"InterpretationsschluesselHUSST_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -4688,19 +5563,23 @@
         <v>146</v>
       </c>
       <c r="D137" t="str">
-        <f>IF(ISNA(LOOKUP(C137,Tabelle1!A:A)),"",LOOKUP(C137,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C137,assignSchematalist!A:A)),"",LOOKUP(C137,assignSchematalist!A:A))</f>
         <v>TagesmerkmalElemente_Type</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(D137=C137,LOOKUP(C137,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D137=C137,LOOKUP(C137,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F137" t="str">
         <f>IF(E137="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C137),"$L",E137))</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H137" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A137),"$L",$B137),"$T",$C137),"$SN",$G137)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Tarifrelevantepunkte_Type";""</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -4711,19 +5590,23 @@
         <v>147</v>
       </c>
       <c r="D138" t="str">
-        <f>IF(ISNA(LOOKUP(C138,Tabelle1!A:A)),"",LOOKUP(C138,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C138,assignSchematalist!A:A)),"",LOOKUP(C138,assignSchematalist!A:A))</f>
         <v/>
       </c>
       <c r="E138" t="str">
-        <f>IF(D138=C138,LOOKUP(C138,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D138=C138,LOOKUP(C138,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F138" t="str">
         <f>IF(E138="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C138),"$L",E138))</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A138),"$L",$B138),"$T",$C138),"$SN",$G138)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"Bediengebiete_Type";""</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -4734,19 +5617,23 @@
         <v>148</v>
       </c>
       <c r="D139" t="str">
-        <f>IF(ISNA(LOOKUP(C139,Tabelle1!A:A)),"",LOOKUP(C139,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C139,assignSchematalist!A:A)),"",LOOKUP(C139,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E139" t="str">
-        <f>IF(D139=C139,LOOKUP(C139,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D139=C139,LOOKUP(C139,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F139" t="str">
         <f>IF(E139="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C139),"$L",E139))</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H139" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A139),"$L",$B139),"$T",$C139),"$SN",$G139)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefOTPTyp_Type";""</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4757,42 +5644,53 @@
         <v>149</v>
       </c>
       <c r="D140" t="str">
-        <f>IF(ISNA(LOOKUP(C140,Tabelle1!A:A)),"",LOOKUP(C140,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C140,assignSchematalist!A:A)),"",LOOKUP(C140,assignSchematalist!A:A))</f>
         <v>Sammelbeleg_Type</v>
       </c>
       <c r="E140" t="str">
-        <f>IF(D140=C140,LOOKUP(C140,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D140=C140,LOOKUP(C140,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F140" t="str">
         <f>IF(E140="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C140),"$L",E140))</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A140),"$L",$B140),"$T",$C140),"$SN",$G140)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"Sortengruppen_Type";""</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D141" t="str">
-        <f>IF(ISNA(LOOKUP(C141,Tabelle1!A:A)),"",LOOKUP(C141,Tabelle1!A:A))</f>
-        <v>Umschalttag_Type</v>
+        <f>IF(ISNA(LOOKUP(C141,assignSchematalist!A:A)),"",LOOKUP(C141,assignSchematalist!A:A))</f>
+        <v>INT8</v>
       </c>
       <c r="E141" t="str">
-        <f>IF(D141=C141,LOOKUP(C141,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D141=C141,LOOKUP(C141,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F141" t="str">
         <f>IF(E141="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C141),"$L",E141))</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>227</v>
+      </c>
+      <c r="H141" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A141),"$L",$B141),"$T",$C141),"$SN",$G141)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis,Tarif";"InterpretationsschluesselProjektspezifisch_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -4800,22 +5698,29 @@
         <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="D142" t="str">
-        <f>IF(ISNA(LOOKUP(C142,Tabelle1!A:A)),"",LOOKUP(C142,Tabelle1!A:A))</f>
-        <v>DauerMinuten</v>
+        <f>IF(ISNA(LOOKUP(C142,assignSchematalist!A:A)),"",LOOKUP(C142,assignSchematalist!A:A))</f>
+        <v>KoordWgs84_Type</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(D142=C142,LOOKUP(C142,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D142=C142,LOOKUP(C142,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F142" t="str">
         <f>IF(E142="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C142),"$L",E142))</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>227</v>
+      </c>
+      <c r="H142" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A142),"$L",$B142),"$T",$C142),"$SN",$G142)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Lang_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -4823,45 +5728,59 @@
         <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D143" t="str">
-        <f>IF(ISNA(LOOKUP(C143,Tabelle1!A:A)),"",LOOKUP(C143,Tabelle1!A:A))</f>
-        <v>DynAttributWert_Type</v>
+        <f>IF(ISNA(LOOKUP(C143,assignSchematalist!A:A)),"",LOOKUP(C143,assignSchematalist!A:A))</f>
+        <v>Sprachtexte_Type</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(D143=C143,LOOKUP(C143,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v/>
+        <f>IF(D143=C143,LOOKUP(C143,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v>Basis</v>
       </c>
       <c r="F143" t="str">
         <f>IF(E143="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C143),"$L",E143))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Sprachtexte_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G143" t="s">
+        <v>227</v>
+      </c>
+      <c r="H143" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A143),"$L",$B143),"$T",$C143),"$SN",$G143)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Sprachtexte_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="D144" t="str">
-        <f>IF(ISNA(LOOKUP(C144,Tabelle1!A:A)),"",LOOKUP(C144,Tabelle1!A:A))</f>
-        <v>Umschalttag_Type</v>
+        <f>IF(ISNA(LOOKUP(C144,assignSchematalist!A:A)),"",LOOKUP(C144,assignSchematalist!A:A))</f>
+        <v>Sprachtexte_Type</v>
       </c>
       <c r="E144" t="str">
-        <f>IF(D144=C144,LOOKUP(C144,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D144=C144,LOOKUP(C144,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F144" t="str">
         <f>IF(E144="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C144),"$L",E144))</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>227</v>
+      </c>
+      <c r="H144" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A144),"$L",$B144),"$T",$C144),"$SN",$G144)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Angebot,Basis";"String250";"Technisch"</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -4872,19 +5791,23 @@
         <v>154</v>
       </c>
       <c r="D145" t="str">
-        <f>IF(ISNA(LOOKUP(C145,Tabelle1!A:A)),"",LOOKUP(C145,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C145,assignSchematalist!A:A)),"",LOOKUP(C145,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E145" t="str">
-        <f>IF(D145=C145,LOOKUP(C145,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D145=C145,LOOKUP(C145,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F145" t="str">
         <f>IF(E145="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C145),"$L",E145))</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H145" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A145),"$L",$B145),"$T",$C145),"$SN",$G145)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefPreisquelle_Type";""</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -4895,19 +5818,23 @@
         <v>155</v>
       </c>
       <c r="D146" t="str">
-        <f>IF(ISNA(LOOKUP(C146,Tabelle1!A:A)),"",LOOKUP(C146,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C146,assignSchematalist!A:A)),"",LOOKUP(C146,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E146" t="str">
-        <f>IF(D146=C146,LOOKUP(C146,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D146=C146,LOOKUP(C146,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F146" t="str">
         <f>IF(E146="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C146),"$L",E146))</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H146" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A146),"$L",$B146),"$T",$C146),"$SN",$G146)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefRelationenberechnungsregelung_Type";""</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4918,19 +5845,23 @@
         <v>156</v>
       </c>
       <c r="D147" t="str">
-        <f>IF(ISNA(LOOKUP(C147,Tabelle1!A:A)),"",LOOKUP(C147,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C147,assignSchematalist!A:A)),"",LOOKUP(C147,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(D147=C147,LOOKUP(C147,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D147=C147,LOOKUP(C147,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F147" t="str">
         <f>IF(E147="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C147),"$L",E147))</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H147" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A147),"$L",$B147),"$T",$C147),"$SN",$G147)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot";"DefRelationendruckregelung_Type";""</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4941,19 +5872,23 @@
         <v>157</v>
       </c>
       <c r="D148" t="str">
-        <f>IF(ISNA(LOOKUP(C148,Tabelle1!A:A)),"",LOOKUP(C148,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C148,assignSchematalist!A:A)),"",LOOKUP(C148,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(D148=C148,LOOKUP(C148,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D148=C148,LOOKUP(C148,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F148" t="str">
         <f>IF(E148="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C148),"$L",E148))</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H148" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A148),"$L",$B148),"$T",$C148),"$SN",$G148)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"DefErmittlungseinheit_Type";""</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -4964,19 +5899,23 @@
         <v>158</v>
       </c>
       <c r="D149" t="str">
-        <f>IF(ISNA(LOOKUP(C149,Tabelle1!A:A)),"",LOOKUP(C149,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C149,assignSchematalist!A:A)),"",LOOKUP(C149,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E149" t="str">
-        <f>IF(D149=C149,LOOKUP(C149,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D149=C149,LOOKUP(C149,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F149" t="str">
         <f>IF(E149="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C149),"$L",E149))</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A149),"$L",$B149),"$T",$C149),"$SN",$G149)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_ErmittlungseinheitHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -4987,19 +5926,23 @@
         <v>159</v>
       </c>
       <c r="D150" t="str">
-        <f>IF(ISNA(LOOKUP(C150,Tabelle1!A:A)),"",LOOKUP(C150,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C150,assignSchematalist!A:A)),"",LOOKUP(C150,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E150" t="str">
-        <f>IF(D150=C150,LOOKUP(C150,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D150=C150,LOOKUP(C150,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F150" t="str">
         <f>IF(E150="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C150),"$L",E150))</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H150" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A150),"$L",$B150),"$T",$C150),"$SN",$G150)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarif";"ID_Ermittlungseinheit_Type";""</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -5010,19 +5953,23 @@
         <v>161</v>
       </c>
       <c r="D151" t="str">
-        <f>IF(ISNA(LOOKUP(C151,Tabelle1!A:A)),"",LOOKUP(C151,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C151,assignSchematalist!A:A)),"",LOOKUP(C151,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E151" t="str">
-        <f>IF(D151=C151,LOOKUP(C151,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D151=C151,LOOKUP(C151,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F151" t="str">
         <f>IF(E151="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C151),"$L",E151))</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H151" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A151),"$L",$B151),"$T",$C151),"$SN",$G151)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"DefStreckenart_Type";""</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -5033,19 +5980,23 @@
         <v>162</v>
       </c>
       <c r="D152" t="str">
-        <f>IF(ISNA(LOOKUP(C152,Tabelle1!A:A)),"",LOOKUP(C152,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C152,assignSchematalist!A:A)),"",LOOKUP(C152,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(D152=C152,LOOKUP(C152,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D152=C152,LOOKUP(C152,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F152" t="str">
         <f>IF(E152="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C152),"$L",E152))</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H152" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A152),"$L",$B152),"$T",$C152),"$SN",$G152)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"ID_StreckenartHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -5056,19 +6007,23 @@
         <v>163</v>
       </c>
       <c r="D153" t="str">
-        <f>IF(ISNA(LOOKUP(C153,Tabelle1!A:A)),"",LOOKUP(C153,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C153,assignSchematalist!A:A)),"",LOOKUP(C153,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(D153=C153,LOOKUP(C153,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D153=C153,LOOKUP(C153,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F153" t="str">
         <f>IF(E153="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C153),"$L",E153))</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H153" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A153),"$L",$B153),"$T",$C153),"$SN",$G153)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"ID_Streckenart_Type";""</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -5079,19 +6034,23 @@
         <v>164</v>
       </c>
       <c r="D154" t="str">
-        <f>IF(ISNA(LOOKUP(C154,Tabelle1!A:A)),"",LOOKUP(C154,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C154,assignSchematalist!A:A)),"",LOOKUP(C154,assignSchematalist!A:A))</f>
         <v>DauerMinuten</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(D154=C154,LOOKUP(C154,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D154=C154,LOOKUP(C154,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F154" t="str">
         <f>IF(E154="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C154),"$L",E154))</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H154" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A154),"$L",$B154),"$T",$C154),"$SN",$G154)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"DefStreckencodetyp_Type";""</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -5102,19 +6061,23 @@
         <v>165</v>
       </c>
       <c r="D155" t="str">
-        <f>IF(ISNA(LOOKUP(C155,Tabelle1!A:A)),"",LOOKUP(C155,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C155,assignSchematalist!A:A)),"",LOOKUP(C155,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E155" t="str">
-        <f>IF(D155=C155,LOOKUP(C155,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D155=C155,LOOKUP(C155,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F155" t="str">
         <f>IF(E155="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C155),"$L",E155))</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H155" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A155),"$L",$B155),"$T",$C155),"$SN",$G155)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"ID_StreckencodetypHUSST_Type";""</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -5125,19 +6088,23 @@
         <v>166</v>
       </c>
       <c r="D156" t="str">
-        <f>IF(ISNA(LOOKUP(C156,Tabelle1!A:A)),"",LOOKUP(C156,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C156,assignSchematalist!A:A)),"",LOOKUP(C156,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(D156=C156,LOOKUP(C156,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D156=C156,LOOKUP(C156,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F156" t="str">
         <f>IF(E156="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C156),"$L",E156))</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H156" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A156),"$L",$B156),"$T",$C156),"$SN",$G156)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"ID_Streckencodetyp_Type";""</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -5148,19 +6115,23 @@
         <v>167</v>
       </c>
       <c r="D157" t="str">
-        <f>IF(ISNA(LOOKUP(C157,Tabelle1!A:A)),"",LOOKUP(C157,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C157,assignSchematalist!A:A)),"",LOOKUP(C157,assignSchematalist!A:A))</f>
         <v>Sprachtexte_Type</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(D157=C157,LOOKUP(C157,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D157=C157,LOOKUP(C157,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F157" t="str">
         <f>IF(E157="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C157),"$L",E157))</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H157" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A157),"$L",$B157),"$T",$C157),"$SN",$G157)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"Strecke_Type";""</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -5171,19 +6142,23 @@
         <v>168</v>
       </c>
       <c r="D158" t="str">
-        <f>IF(ISNA(LOOKUP(C158,Tabelle1!A:A)),"",LOOKUP(C158,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C158,assignSchematalist!A:A)),"",LOOKUP(C158,assignSchematalist!A:A))</f>
         <v>Sprachtexte_Type</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(D158=C158,LOOKUP(C158,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D158=C158,LOOKUP(C158,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F158" t="str">
         <f>IF(E158="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C158),"$L",E158))</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H158" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A158),"$L",$B158),"$T",$C158),"$SN",$G158)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"Streckencode_Type";""</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -5194,19 +6169,23 @@
         <v>169</v>
       </c>
       <c r="D159" t="str">
-        <f>IF(ISNA(LOOKUP(C159,Tabelle1!A:A)),"",LOOKUP(C159,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C159,assignSchematalist!A:A)),"",LOOKUP(C159,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(D159=C159,LOOKUP(C159,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D159=C159,LOOKUP(C159,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F159" t="str">
         <f>IF(E159="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C159),"$L",E159))</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H159" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A159),"$L",$B159),"$T",$C159),"$SN",$G159)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"OrtspunktStreckencode_Type";""</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -5217,19 +6196,23 @@
         <v>170</v>
       </c>
       <c r="D160" t="str">
-        <f>IF(ISNA(LOOKUP(C160,Tabelle1!A:A)),"",LOOKUP(C160,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C160,assignSchematalist!A:A)),"",LOOKUP(C160,assignSchematalist!A:A))</f>
         <v>Sprachtexte_Type</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(D160=C160,LOOKUP(C160,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D160=C160,LOOKUP(C160,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F160" t="str">
         <f>IF(E160="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C160),"$L",E160))</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H160" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A160),"$L",$B160),"$T",$C160),"$SN",$G160)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"Streckenzuordnung_Type";""</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -5240,19 +6223,23 @@
         <v>171</v>
       </c>
       <c r="D161" t="str">
-        <f>IF(ISNA(LOOKUP(C161,Tabelle1!A:A)),"",LOOKUP(C161,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C161,assignSchematalist!A:A)),"",LOOKUP(C161,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(D161=C161,LOOKUP(C161,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D161=C161,LOOKUP(C161,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F161" t="str">
         <f>IF(E161="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C161),"$L",E161))</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H161" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A161),"$L",$B161),"$T",$C161),"$SN",$G161)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"Gleichstellungstyp_Type";""</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -5263,19 +6250,23 @@
         <v>172</v>
       </c>
       <c r="D162" t="str">
-        <f>IF(ISNA(LOOKUP(C162,Tabelle1!A:A)),"",LOOKUP(C162,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C162,assignSchematalist!A:A)),"",LOOKUP(C162,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(D162=C162,LOOKUP(C162,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D162=C162,LOOKUP(C162,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F162" t="str">
         <f>IF(E162="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C162),"$L",E162))</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H162" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A162),"$L",$B162),"$T",$C162),"$SN",$G162)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"GleichstellungTarifart_Type";""</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -5286,19 +6277,23 @@
         <v>173</v>
       </c>
       <c r="D163" t="str">
-        <f>IF(ISNA(LOOKUP(C163,Tabelle1!A:A)),"",LOOKUP(C163,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C163,assignSchematalist!A:A)),"",LOOKUP(C163,assignSchematalist!A:A))</f>
         <v>FLOAT1</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(D163=C163,LOOKUP(C163,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D163=C163,LOOKUP(C163,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F163" t="str">
         <f>IF(E163="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C163),"$L",E163))</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H163" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A163),"$L",$B163),"$T",$C163),"$SN",$G163)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Tarifstrecken";"Gleichstellung_Type";""</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -5309,19 +6304,23 @@
         <v>174</v>
       </c>
       <c r="D164" t="str">
-        <f>IF(ISNA(LOOKUP(C164,Tabelle1!A:A)),"",LOOKUP(C164,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C164,assignSchematalist!A:A)),"",LOOKUP(C164,assignSchematalist!A:A))</f>
         <v>KoordWgs84_Type</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(D164=C164,LOOKUP(C164,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D164=C164,LOOKUP(C164,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F164" t="str">
         <f>IF(E164="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C164),"$L",E164))</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H164" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A164),"$L",$B164),"$T",$C164),"$SN",$G164)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif,Tarifstrecken";"OePVTarifDB_Type";""</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -5329,22 +6328,29 @@
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D165" t="str">
-        <f>IF(ISNA(LOOKUP(C165,Tabelle1!A:A)),"",LOOKUP(C165,Tabelle1!A:A))</f>
-        <v>DynAttributDef_Type</v>
+        <f>IF(ISNA(LOOKUP(C165,assignSchematalist!A:A)),"",LOOKUP(C165,assignSchematalist!A:A))</f>
+        <v>Tabelleninfo_Type</v>
       </c>
       <c r="E165" t="str">
-        <f>IF(D165=C165,LOOKUP(C165,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D165=C165,LOOKUP(C165,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v>Basis</v>
       </c>
       <c r="F165" t="str">
         <f>IF(E165="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C165),"$L",E165))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DynAttributDef_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Tabelleninfo_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
+      </c>
+      <c r="G165" t="s">
+        <v>227</v>
+      </c>
+      <c r="H165" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A165),"$L",$B165),"$T",$C165),"$SN",$G165)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Tabelleninfo_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -5352,22 +6358,29 @@
         <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="D166" t="str">
-        <f>IF(ISNA(LOOKUP(C166,Tabelle1!A:A)),"",LOOKUP(C166,Tabelle1!A:A))</f>
-        <v>DynAttributDef_Type</v>
+        <f>IF(ISNA(LOOKUP(C166,assignSchematalist!A:A)),"",LOOKUP(C166,assignSchematalist!A:A))</f>
+        <v>Umschalttag_Type</v>
       </c>
       <c r="E166" t="str">
-        <f>IF(D166=C166,LOOKUP(C166,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D166=C166,LOOKUP(C166,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F166" t="str">
         <f>IF(E166="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C166),"$L",E166))</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>227</v>
+      </c>
+      <c r="H166" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A166),"$L",$B166),"$T",$C166),"$SN",$G166)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Updateinfo_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -5375,22 +6388,29 @@
         <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D167" t="str">
-        <f>IF(ISNA(LOOKUP(C167,Tabelle1!A:A)),"",LOOKUP(C167,Tabelle1!A:A))</f>
-        <v>DynAttributWert_Type</v>
+        <f>IF(ISNA(LOOKUP(C167,assignSchematalist!A:A)),"",LOOKUP(C167,assignSchematalist!A:A))</f>
+        <v>Umschalttag_Type</v>
       </c>
       <c r="E167" t="str">
-        <f>IF(D167=C167,LOOKUP(C167,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D167=C167,LOOKUP(C167,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F167" t="str">
         <f>IF(E167="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C167),"$L",E167))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DynAttributWert_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G167" t="s">
+        <v>227</v>
+      </c>
+      <c r="H167" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A167),"$L",$B167),"$T",$C167),"$SN",$G167)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"VersionInhalt_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -5398,22 +6418,29 @@
         <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D168" t="str">
-        <f>IF(ISNA(LOOKUP(C168,Tabelle1!A:A)),"",LOOKUP(C168,Tabelle1!A:A))</f>
-        <v>Sprachtexte_Type</v>
+        <f>IF(ISNA(LOOKUP(C168,assignSchematalist!A:A)),"",LOOKUP(C168,assignSchematalist!A:A))</f>
+        <v>Umschalttag_Type</v>
       </c>
       <c r="E168" t="str">
-        <f>IF(D168=C168,LOOKUP(C168,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D168=C168,LOOKUP(C168,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F168" t="str">
         <f>IF(E168="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C168),"$L",E168))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Sprachtexte_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G168" t="s">
+        <v>227</v>
+      </c>
+      <c r="H168" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A168),"$L",$B168),"$T",$C168),"$SN",$G168)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"VersionStatus_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -5421,45 +6448,59 @@
         <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D169" t="str">
-        <f>IF(ISNA(LOOKUP(C169,Tabelle1!A:A)),"",LOOKUP(C169,Tabelle1!A:A))</f>
-        <v>Tabelleninfo_Type</v>
+        <f>IF(ISNA(LOOKUP(C169,assignSchematalist!A:A)),"",LOOKUP(C169,assignSchematalist!A:A))</f>
+        <v>Umschalttag_Type</v>
       </c>
       <c r="E169" t="str">
-        <f>IF(D169=C169,LOOKUP(C169,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D169=C169,LOOKUP(C169,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F169" t="str">
         <f>IF(E169="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C169),"$L",E169))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;Tabelleninfo_Type&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G169" t="s">
+        <v>227</v>
+      </c>
+      <c r="H169" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A169),"$L",$B169),"$T",$C169),"$SN",$G169)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"VersionStruktur_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D170" t="str">
-        <f>IF(ISNA(LOOKUP(C170,Tabelle1!A:A)),"",LOOKUP(C170,Tabelle1!A:A))</f>
-        <v>DauerMinuten</v>
+        <f>IF(ISNA(LOOKUP(C170,assignSchematalist!A:A)),"",LOOKUP(C170,assignSchematalist!A:A))</f>
+        <v>Vorverkauf_Type</v>
       </c>
       <c r="E170" t="str">
-        <f>IF(D170=C170,LOOKUP(C170,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D170=C170,LOOKUP(C170,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F170" t="str">
         <f>IF(E170="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C170),"$L",E170))</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>227</v>
+      </c>
+      <c r="H170" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A170),"$L",$B170),"$T",$C170),"$SN",$G170)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Zeitraeume_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -5467,22 +6508,29 @@
         <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="D171" t="str">
-        <f>IF(ISNA(LOOKUP(C171,Tabelle1!A:A)),"",LOOKUP(C171,Tabelle1!A:A))</f>
-        <v>DynAttributWert_Subtype</v>
+        <f>IF(ISNA(LOOKUP(C171,assignSchematalist!A:A)),"",LOOKUP(C171,assignSchematalist!A:A))</f>
+        <v>Vorverkauf_Type</v>
       </c>
       <c r="E171" t="str">
-        <f>IF(D171=C171,LOOKUP(C171,Tabelle1!A:A,Tabelle1!C:C),"")</f>
-        <v>Basis</v>
+        <f>IF(D171=C171,LOOKUP(C171,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
       </c>
       <c r="F171" t="str">
         <f>IF(E171="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C171),"$L",E171))</f>
-        <v xml:space="preserve">		&lt;type&gt;&lt;name&gt;DynAttributWert_Subtype&lt;/name&gt;&lt;schemalist&gt;Basis&lt;/schemalist&gt;&lt;/type&gt;</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="G171" t="s">
+        <v>227</v>
+      </c>
+      <c r="H171" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A171),"$L",$B171),"$T",$C171),"$SN",$G171)</f>
+        <v>"HUSST_Basisversorgungsdaten.xsd";"Basis";"Zeitraumoptionen_Type";"Technisch"</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -5493,29 +6541,313 @@
         <v>182</v>
       </c>
       <c r="D172" t="str">
-        <f>IF(ISNA(LOOKUP(C172,Tabelle1!A:A)),"",LOOKUP(C172,Tabelle1!A:A))</f>
+        <f>IF(ISNA(LOOKUP(C172,assignSchematalist!A:A)),"",LOOKUP(C172,assignSchematalist!A:A))</f>
         <v>Sammelbeleg_Type</v>
       </c>
       <c r="E172" t="str">
-        <f>IF(D172=C172,LOOKUP(C172,Tabelle1!A:A,Tabelle1!C:C),"")</f>
+        <f>IF(D172=C172,LOOKUP(C172,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
         <v/>
       </c>
       <c r="F172" t="str">
-        <f>IF(E172="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C172),"$L",E172))</f>
-        <v/>
+        <f t="shared" ref="F162:F193" si="0">IF(E172="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C172),"$L",E172))</f>
+        <v/>
+      </c>
+      <c r="H172" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A172),"$L",$B172),"$T",$C172),"$SN",$G172)</f>
+        <v>"HUSST_Versorgungsdaten.xsd";"Angebot,Tarif";"SortengruppenElemente_Type";""</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>198</v>
+      </c>
+      <c r="B173" t="s">
+        <v>197</v>
+      </c>
+      <c r="C173" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173" t="str">
+        <f>IF(ISNA(LOOKUP(C173,assignSchematalist!A:A)),"",LOOKUP(C173,assignSchematalist!A:A))</f>
+        <v>DynAttributWert_Type</v>
+      </c>
+      <c r="E173" t="str">
+        <f>IF(D173=C173,LOOKUP(C173,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" ref="F173:F181" si="1">IF(E173="","",SUBSTITUTE(SUBSTITUTE(assignedSchema,"$N",C173),"$L",E173))</f>
+        <v/>
+      </c>
+      <c r="H173" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A173),"$L",$B173),"$T",$C173),"$SN",$G173)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"Einsatzarten_Type";""</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174" t="s">
+        <v>197</v>
+      </c>
+      <c r="C174" t="s">
+        <v>189</v>
+      </c>
+      <c r="D174" t="str">
+        <f>IF(ISNA(LOOKUP(C174,assignSchematalist!A:A)),"",LOOKUP(C174,assignSchematalist!A:A))</f>
+        <v>FLOAT1</v>
+      </c>
+      <c r="E174" t="str">
+        <f>IF(D174=C174,LOOKUP(C174,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H174" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A174),"$L",$B174),"$T",$C174),"$SN",$G174)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"GeraetEinsatztypen_Type";""</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>198</v>
+      </c>
+      <c r="B175" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" t="s">
+        <v>190</v>
+      </c>
+      <c r="D175" t="str">
+        <f>IF(ISNA(LOOKUP(C175,assignSchematalist!A:A)),"",LOOKUP(C175,assignSchematalist!A:A))</f>
+        <v>FLOAT1</v>
+      </c>
+      <c r="E175" t="str">
+        <f>IF(D175=C175,LOOKUP(C175,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H175" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A175),"$L",$B175),"$T",$C175),"$SN",$G175)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"Geraet_Type";""</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" t="s">
+        <v>197</v>
+      </c>
+      <c r="C176" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" t="str">
+        <f>IF(ISNA(LOOKUP(C176,assignSchematalist!A:A)),"",LOOKUP(C176,assignSchematalist!A:A))</f>
+        <v>FLOAT1</v>
+      </c>
+      <c r="E176" t="str">
+        <f>IF(D176=C176,LOOKUP(C176,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H176" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A176),"$L",$B176),"$T",$C176),"$SN",$G176)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"IdentobjektTypen_Type";""</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" t="s">
+        <v>192</v>
+      </c>
+      <c r="D177" t="str">
+        <f>IF(ISNA(LOOKUP(C177,assignSchematalist!A:A)),"",LOOKUP(C177,assignSchematalist!A:A))</f>
+        <v>FLOAT1</v>
+      </c>
+      <c r="E177" t="str">
+        <f>IF(D177=C177,LOOKUP(C177,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H177" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A177),"$L",$B177),"$T",$C177),"$SN",$G177)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"Identobjekte_Type";""</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>198</v>
+      </c>
+      <c r="B178" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" t="s">
+        <v>193</v>
+      </c>
+      <c r="D178" t="str">
+        <f>IF(ISNA(LOOKUP(C178,assignSchematalist!A:A)),"",LOOKUP(C178,assignSchematalist!A:A))</f>
+        <v>KoordWgs84_Type</v>
+      </c>
+      <c r="E178" t="str">
+        <f>IF(D178=C178,LOOKUP(C178,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H178" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A178),"$L",$B178),"$T",$C178),"$SN",$G178)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"PersonalIdentobjekte_Type";""</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" t="s">
+        <v>194</v>
+      </c>
+      <c r="D179" t="str">
+        <f>IF(ISNA(LOOKUP(C179,assignSchematalist!A:A)),"",LOOKUP(C179,assignSchematalist!A:A))</f>
+        <v>KoordWgs84_Type</v>
+      </c>
+      <c r="E179" t="str">
+        <f>IF(D179=C179,LOOKUP(C179,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H179" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A179),"$L",$B179),"$T",$C179),"$SN",$G179)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"Personal_Type";""</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>231</v>
+      </c>
+      <c r="B180" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" t="s">
+        <v>195</v>
+      </c>
+      <c r="D180" t="str">
+        <f>IF(ISNA(LOOKUP(C180,assignSchematalist!A:A)),"",LOOKUP(C180,assignSchematalist!A:A))</f>
+        <v>KoordWgs84_Type</v>
+      </c>
+      <c r="E180" t="str">
+        <f>IF(D180=C180,LOOKUP(C180,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H180" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A180),"$L",$B180),"$T",$C180),"$SN",$G180)</f>
+        <v>"xit";"Personal";"Personaleinsatz_Type";""</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" t="s">
+        <v>197</v>
+      </c>
+      <c r="C181" t="s">
+        <v>196</v>
+      </c>
+      <c r="D181" t="str">
+        <f>IF(ISNA(LOOKUP(C181,assignSchematalist!A:A)),"",LOOKUP(C181,assignSchematalist!A:A))</f>
+        <v>Sprachtexte_Type</v>
+      </c>
+      <c r="E181" t="str">
+        <f>IF(D181=C181,LOOKUP(C181,assignSchematalist!A:A,assignSchematalist!C:C),"")</f>
+        <v/>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H181" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A181),"$L",$B181),"$T",$C181),"$SN",$G181)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"Standort_Type";""</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>198</v>
+      </c>
+      <c r="B182" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" t="s">
+        <v>218</v>
+      </c>
+      <c r="H182" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(DatentypenCsv,"$X",$A182),"$L",$B182),"$T",$C182),"$SN",$G182)</f>
+        <v>"HUSST_Personaldaten.xsd";"Personal";"Geraetetypen_Type";""</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F172" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C173">
-    <sortCondition ref="A2:A173"/>
+  <autoFilter ref="A1:F182" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G171">
+    <sortCondition ref="G2:G171"/>
+    <sortCondition ref="C2:C171"/>
   </sortState>
-  <conditionalFormatting sqref="A2:C172">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="A2:C172 B173:B182">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$A2="HUSST_Versorgungsdaten.xsd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$A2="HUSST_Basisversorgungsdaten.xsd"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C200">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>$A2="HUSST_Personaldaten.xsd"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:A184">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$A183="HUSST_Versorgungsdaten.xsd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A183="HUSST_Basisversorgungsdaten.xsd"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B183:C184">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A183="HUSST_Versorgungsdaten.xsd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$A183="HUSST_Basisversorgungsdaten.xsd"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5525,10 +6857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3053085-1B9C-4AAF-B9C3-C4EF735A9E7C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5537,15 +6869,23 @@
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5553,7 +6893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -5561,7 +6901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -5569,7 +6909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -5577,7 +6917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5585,7 +6925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5593,7 +6933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5601,7 +6941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5609,7 +6949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5617,7 +6957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5625,7 +6965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5633,7 +6973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -5641,7 +6981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -5649,7 +6989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -5657,7 +6997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -5710,21 +7050,211 @@
     <sortCondition ref="A1:A21"/>
   </sortState>
   <conditionalFormatting sqref="A11:A16">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$A11="HUSST_Versorgungsdaten.xsd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$A11="HUSST_Basisversorgungsdaten.xsd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A18="HUSST_Versorgungsdaten.xsd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$A18="HUSST_Basisversorgungsdaten.xsd"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E97125C-93BC-49C5-ACF9-6229F77584A5}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="36" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="94.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$B1="true"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$B1="false"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>